--- a/data/hotels_by_city/Dallas/Dallas_shard_757.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_757.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1369 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r551855190-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>109517</t>
+  </si>
+  <si>
+    <t>551855190</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Great Location and Service</t>
+  </si>
+  <si>
+    <t>Stayed for the Cotton Bowl to root for Ohio State and the location was great.  With 3 teenagers, 2 bedrooms is a must and this did not disappoint - plenty of room.  Beds were very comfy, including the sofa bed. Staff was great at check-in and check-out. Lots of restaurants nearby. There is even a basketball court on the property. Only downsides were runny eggs at breakfast, clock not set to right time (I couldn't figure it out) and carpeting needs replacing (carpet in the hallway had a very musty odor). Otherwise, good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Christopher V, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed for the Cotton Bowl to root for Ohio State and the location was great.  With 3 teenagers, 2 bedrooms is a must and this did not disappoint - plenty of room.  Beds were very comfy, including the sofa bed. Staff was great at check-in and check-out. Lots of restaurants nearby. There is even a basketball court on the property. Only downsides were runny eggs at breakfast, clock not set to right time (I couldn't figure it out) and carpeting needs replacing (carpet in the hallway had a very musty odor). Otherwise, good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r549621901-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>549621901</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Great Location near AT&amp;T statdium</t>
+  </si>
+  <si>
+    <t>Traveled to the area for the State High School Football Championship and wanted a place near AT&amp;T stadium to stay.  With a couple of older kids now, space to spread out is very important for me.  We stayed in a two room suite (i.e. two separate bedrooms, each with a queen bed).  In addition, the sofa in the living space also opened into its own bed.  The beds were decently comfortable and we were able to sleep pretty well after returning from the game.Free parking was available in front and back lots and the walk to my room from either lot was pretty short.The full kitchen was very useful as we like to bring food and drinks with us on road trips.  A full size refrigerator served us well.Our room faced out the front of the hotel onto Lamar Blvd, but despite being a high traffic road, I had no issues with noise.The breakfast area was small, but had a decent mix of hot and cold options and everything I ate tasted good.Overall, I found this a great place to stay with easy access to the sport and entertainment places there in Arlington.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traveled to the area for the State High School Football Championship and wanted a place near AT&amp;T stadium to stay.  With a couple of older kids now, space to spread out is very important for me.  We stayed in a two room suite (i.e. two separate bedrooms, each with a queen bed).  In addition, the sofa in the living space also opened into its own bed.  The beds were decently comfortable and we were able to sleep pretty well after returning from the game.Free parking was available in front and back lots and the walk to my room from either lot was pretty short.The full kitchen was very useful as we like to bring food and drinks with us on road trips.  A full size refrigerator served us well.Our room faced out the front of the hotel onto Lamar Blvd, but despite being a high traffic road, I had no issues with noise.The breakfast area was small, but had a decent mix of hot and cold options and everything I ate tasted good.Overall, I found this a great place to stay with easy access to the sport and entertainment places there in Arlington.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r540033543-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>540033543</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>See Zeke Run!</t>
+  </si>
+  <si>
+    <t>If you're in town for a Cowboys game, this hotel is a perfect place to stay.  Walkable to AT&amp;T Stadium (also Global Life Stadium, Six Flags Over Texas and Hurricane Harbor), it makes attending a Cowboys game very easy.  It's about a 30 minute walk to enter the stadium, but that includes crossing busy crosswalks and maneuvering through the crowds of fans. This is a much better option than paying $50 to $70 to park, in bumper to bumper traffic.  The walk is very safe and pretty much a straight shot once you get on Baird Farm Rd, which turns into AT&amp;T Way once you cross over I30.The rooms are very nice, and include a small kitchen, couch and and tray tables to eat on.  The hotel is clean and included a hot breakfast.  The staff was very friendly and accommodating.  I was offered a shuttle ride from the hotel to the stadium for $20, so that might be a good option for people who do not want to walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>If you're in town for a Cowboys game, this hotel is a perfect place to stay.  Walkable to AT&amp;T Stadium (also Global Life Stadium, Six Flags Over Texas and Hurricane Harbor), it makes attending a Cowboys game very easy.  It's about a 30 minute walk to enter the stadium, but that includes crossing busy crosswalks and maneuvering through the crowds of fans. This is a much better option than paying $50 to $70 to park, in bumper to bumper traffic.  The walk is very safe and pretty much a straight shot once you get on Baird Farm Rd, which turns into AT&amp;T Way once you cross over I30.The rooms are very nice, and include a small kitchen, couch and and tray tables to eat on.  The hotel is clean and included a hot breakfast.  The staff was very friendly and accommodating.  I was offered a shuttle ride from the hotel to the stadium for $20, so that might be a good option for people who do not want to walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r509627751-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>509627751</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>service was terrible</t>
+  </si>
+  <si>
+    <t>The staff was not accommodating at all. Informed staff that A/C was not working properly and I was told that it was probably my fault for turning it down so low. Woke up first morning of stay and the water was off, five people in my party that needed to use restroom and shower, it was a nightmare. The front desk was asked what the problem was and I was told that there was an emergency and that it was not their fault and that it would be at least an hour before it was fixed. This is all within the first 24 hours.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r507419100-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>507419100</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Nice staff but horrible rooms</t>
+  </si>
+  <si>
+    <t>The staff is super nice, but they don't actually fix issues. We checked in on July 4 and the pullout couch was soaking wet and stunk like urine. We were able to switch rooms across the other side of the property. The staff didn't ask to help us load up any of of stuff to make the switch over to the other room. It took three trips to get everything moved over. Mind you, we have two kids and a cat in tow. Then the AC doesn't work very well in the new room. I called the front desk and he told me that the maintenance staff had left and he would put a work order in for the next day. That never happened. Again, the staff is really nice, they just don't actually work to make their customers happy or taken care of. I had to call back for 5 days straight to be able to talk to Rachel who said she was going to look into the situation and figure it out and call me right back. She never called me back, instead I had to finally call every hour on the hour to get to speak to her and have her handle the issue. We will never stay in this hotel again. It was beyond disgusting. Don't waste your money there. The holiday inn was much nicer!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The staff is super nice, but they don't actually fix issues. We checked in on July 4 and the pullout couch was soaking wet and stunk like urine. We were able to switch rooms across the other side of the property. The staff didn't ask to help us load up any of of stuff to make the switch over to the other room. It took three trips to get everything moved over. Mind you, we have two kids and a cat in tow. Then the AC doesn't work very well in the new room. I called the front desk and he told me that the maintenance staff had left and he would put a work order in for the next day. That never happened. Again, the staff is really nice, they just don't actually work to make their customers happy or taken care of. I had to call back for 5 days straight to be able to talk to Rachel who said she was going to look into the situation and figure it out and call me right back. She never called me back, instead I had to finally call every hour on the hour to get to speak to her and have her handle the issue. We will never stay in this hotel again. It was beyond disgusting. Don't waste your money there. The holiday inn was much nicer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r490505629-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>490505629</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Gave away our room</t>
+  </si>
+  <si>
+    <t>We really can't tell you a thing about this hotel for the following reason. We booked the hotel ahead of time and even called them a day ahead to make sure the front desk could check us in at around 10 P.M. We were assured the room would be waiting for us. Guess what!!!!! Hotel was overbooked and we were told that they shifted us to another hotel.  The desk person was positive and friendly but that didn't get us our room! Tired from our trip to Dallas, we loaded back up and drove to Spring Hill suites. People without a car would have to recall a taxi. Guess what!!! TownePlace Suites never contacted them ahead of time about booking us a room and they had no room left either. However the two people working the desk at SpringHill called up their manager and after a ten minute conversation were able to manipulate it somehow so we didn't have to sleep out in the parking lot. ,MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We really can't tell you a thing about this hotel for the following reason. We booked the hotel ahead of time and even called them a day ahead to make sure the front desk could check us in at around 10 P.M. We were assured the room would be waiting for us. Guess what!!!!! Hotel was overbooked and we were told that they shifted us to another hotel.  The desk person was positive and friendly but that didn't get us our room! Tired from our trip to Dallas, we loaded back up and drove to Spring Hill suites. People without a car would have to recall a taxi. Guess what!!! TownePlace Suites never contacted them ahead of time about booking us a room and they had no room left either. However the two people working the desk at SpringHill called up their manager and after a ten minute conversation were able to manipulate it somehow so we didn't have to sleep out in the parking lot. ,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r475681458-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>475681458</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Amazing and Awesome and Oh my gosh! (the words of the daughter)</t>
+  </si>
+  <si>
+    <t>We have stayed here for two weeks whilst holidaying in the USA. The service has been excellent, from the front desk to the maid service everyone is so friendly and attentive. The hotel itself is in a quad set up with rooms around a square courtyard that has the outside areas and pool. We stayed in a room with two bedrooms, a kitchenette and living area. It was at the back of the hotel and it was nice not having to walk through the lobby every time you went to your room. The room was perfect for our needs. Very clean and plenty of towels and toiletries. We didn't get the room cleaned daily as we really didn't think we needed it. They restocked and cleaned the bedding after the first week and we were very pleased with the maid service. The breakfast is WOW! The little sausages are heaven. Maybe it's because we are from the UK where the food is a bit bland but the breakfast for us was fabulous. Texas shaped waffles? Yes please! Fruit, muffins, oatmeal, waffles, chocolate milk, coffee, tea, toast, bagels. I've never seen such a selection. don't listen to the bad reviews we thought this hotel was fantastic. The staff went out of their way to make our stay great. Thanks to the guy who printed off our Rangers tickets for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here for two weeks whilst holidaying in the USA. The service has been excellent, from the front desk to the maid service everyone is so friendly and attentive. The hotel itself is in a quad set up with rooms around a square courtyard that has the outside areas and pool. We stayed in a room with two bedrooms, a kitchenette and living area. It was at the back of the hotel and it was nice not having to walk through the lobby every time you went to your room. The room was perfect for our needs. Very clean and plenty of towels and toiletries. We didn't get the room cleaned daily as we really didn't think we needed it. They restocked and cleaned the bedding after the first week and we were very pleased with the maid service. The breakfast is WOW! The little sausages are heaven. Maybe it's because we are from the UK where the food is a bit bland but the breakfast for us was fabulous. Texas shaped waffles? Yes please! Fruit, muffins, oatmeal, waffles, chocolate milk, coffee, tea, toast, bagels. I've never seen such a selection. don't listen to the bad reviews we thought this hotel was fantastic. The staff went out of their way to make our stay great. Thanks to the guy who printed off our Rangers tickets for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r473844912-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>473844912</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Six Flags</t>
+  </si>
+  <si>
+    <t>Jericha  (I apologize if I got that wrong)what a lovely young lady.  She was very pleasant, helpful and engaging.She asked a few questions, found out we were going to Six Flags and told us about the trolley service and gave is some passes.  This employee goes above and beyond in customer service.  Make her a trainer.2 bedroom 1 bath was perfect, clean and priced well. 230 a night, I believe. TIP Six Flags  by trolley 30 min before park opens, every 30 min for the first hour and then a few more times and return trips every 2 hours or so.We took UBER Back to hotel, 9 bucks!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r462018107-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>462018107</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. I would stay here again for sure. Staff not as helpful but still a great stay. The pillows were very soft and fluffy!  Sitting area was nice. Plenty of extra bedding to accommodate the sleeper sofa that wasn't bad for a sleeper sofa!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. I would stay here again for sure. Staff not as helpful but still a great stay. The pillows were very soft and fluffy!  Sitting area was nice. Plenty of extra bedding to accommodate the sleeper sofa that wasn't bad for a sleeper sofa!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r449604081-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>449604081</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Nice Marriot</t>
+  </si>
+  <si>
+    <t>We stayed for five nights around Christmas.  The hotel was clean and service was nice.  I was a bit bummed they didn't have their social hour (free dinner) the few days after Christmas but understand they were probably giving the staff a break.  Breakfast morning was just cold food.  Again, bummed but understanding.  We had a two bedroom suite which had enough room for four of us.  Didn't seemed vacuumed when we got there but left a note and a tip for the housekeeping and it was great when we got back that day.  Played on the basketball court one night.  Front desk had a basketball for us to use.  Didn't use the pool.  One day it was super windy and got filled with leaves.  It was clean the next day.  Used the laundry which was costly at $2.00 a load.  The front desk was out of quarters for the weekend.  More planning ahead so this wouldn't happen would be nice.  Had to run to a gas station to get quarters.  Hotel is super close to AT&amp;T stadium which I recommend walking to instead of paying to park closer.  About 1.5 miles walk and all sidewalks. We walked for a Monday night game.  Lots of people walked back with us. Waterpark right across the street which was closed when we were there.Drove to Six Flags which is also close.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We stayed for five nights around Christmas.  The hotel was clean and service was nice.  I was a bit bummed they didn't have their social hour (free dinner) the few days after Christmas but understand they were probably giving the staff a break.  Breakfast morning was just cold food.  Again, bummed but understanding.  We had a two bedroom suite which had enough room for four of us.  Didn't seemed vacuumed when we got there but left a note and a tip for the housekeeping and it was great when we got back that day.  Played on the basketball court one night.  Front desk had a basketball for us to use.  Didn't use the pool.  One day it was super windy and got filled with leaves.  It was clean the next day.  Used the laundry which was costly at $2.00 a load.  The front desk was out of quarters for the weekend.  More planning ahead so this wouldn't happen would be nice.  Had to run to a gas station to get quarters.  Hotel is super close to AT&amp;T stadium which I recommend walking to instead of paying to park closer.  About 1.5 miles walk and all sidewalks. We walked for a Monday night game.  Lots of people walked back with us. Waterpark right across the street which was closed when we were there.Drove to Six Flags which is also close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r449031416-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>449031416</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Average at best.  Not your typical Marriott.</t>
+  </si>
+  <si>
+    <t>We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other...We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other options.  This Marriott did not come close to meeting our expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other...We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other options.  This Marriott did not come close to meeting our expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r445918551-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>445918551</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Not sure how this hotel could have a good review</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on the night of December 14, 2016 in room 308.  I had reservations to stay for three nights, but checked out early because this is, without a doubt, the worst hotel in which I have ever stayed.  Let me say that the employees at the front desk were very friendly -- I have no complaints about them.   I cannot begin to explain how bad the bed was!!  Every time I moved in the bed it made loud "popping" noises.  I did not sleep at all that night.  I do not want to sound like I am one of those "constant complainers."  I am not.  I did not even complain to the front desk.  I just packed my bags and left.  I am truly surprised that Marriott has their brand on this place.  I would challenge anyone from Marriott to stay in room 308 for even one night!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on the night of December 14, 2016 in room 308.  I had reservations to stay for three nights, but checked out early because this is, without a doubt, the worst hotel in which I have ever stayed.  Let me say that the employees at the front desk were very friendly -- I have no complaints about them.   I cannot begin to explain how bad the bed was!!  Every time I moved in the bed it made loud "popping" noises.  I did not sleep at all that night.  I do not want to sound like I am one of those "constant complainers."  I am not.  I did not even complain to the front desk.  I just packed my bags and left.  I am truly surprised that Marriott has their brand on this place.  I would challenge anyone from Marriott to stay in room 308 for even one night!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r436172178-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>436172178</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Go Rangers!  2017?</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights during the first weekend of October to see the last regular season (2) games of the Rangers.The weather was beautiful!Upon arrival, the front desk person was so friendly and so nice to my kid.  She was really sweet and helpful because we were in a rush to get to the game.She informed us of the free (to hotel guests) trolley to the ballpark and it was crowded but nice to have the option to and from.  We actually walked home after the day game and it's not far but it's not super close.  However, we really enjoyed the walk and there was sidewalks available so no treacherous traversing.Parking was super easy and not crowded.  Rooms were clean .. kitchen is always awesome to have.  Went to this really yummy old school Italian restaurant one night, Piccolo Mondo, which is right next to Whole Foods .. both are super close to the hotel.  Pool was fun for the kid; I don't know if it was heated or not .. but he was fine for a little while to get that energy out.We are touring the U.S. of ballparks so I don't know when I will get back to this particular hotel, but I have stayed and love staying at TownePlace when they are near the ballpark we are traveling to!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights during the first weekend of October to see the last regular season (2) games of the Rangers.The weather was beautiful!Upon arrival, the front desk person was so friendly and so nice to my kid.  She was really sweet and helpful because we were in a rush to get to the game.She informed us of the free (to hotel guests) trolley to the ballpark and it was crowded but nice to have the option to and from.  We actually walked home after the day game and it's not far but it's not super close.  However, we really enjoyed the walk and there was sidewalks available so no treacherous traversing.Parking was super easy and not crowded.  Rooms were clean .. kitchen is always awesome to have.  Went to this really yummy old school Italian restaurant one night, Piccolo Mondo, which is right next to Whole Foods .. both are super close to the hotel.  Pool was fun for the kid; I don't know if it was heated or not .. but he was fine for a little while to get that energy out.We are touring the U.S. of ballparks so I don't know when I will get back to this particular hotel, but I have stayed and love staying at TownePlace when they are near the ballpark we are traveling to!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r408930050-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>408930050</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>First impressions last, and unfortunately my first impression was not good.The receptionist barely offered us a greeting and appeared not to show any interest in us.On top of this, she could not find our reservation number despite it being made through Marriott. Nor could she find it with our name.We were handed the keys to our room with no guidance as to the direction of the room.Our room had an unclean feel to it and the bed was noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>First impressions last, and unfortunately my first impression was not good.The receptionist barely offered us a greeting and appeared not to show any interest in us.On top of this, she could not find our reservation number despite it being made through Marriott. Nor could she find it with our name.We were handed the keys to our room with no guidance as to the direction of the room.Our room had an unclean feel to it and the bed was noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r397658785-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>397658785</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Great location, but</t>
+  </si>
+  <si>
+    <t>This is not our first visit.  Room was very nice and breakfast was average.  I am giving it an average rating.  The reason is that they dropped the ball on fixing the phone...(I still believe in security).  Said the closet door would be fixed.  It was propped up against the frame very loosely.  Went to ballgame and not a darn thing completed.  I told the morning desk clerk about the issue again!  Good luck to the next people inhabiting the room!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>This is not our first visit.  Room was very nice and breakfast was average.  I am giving it an average rating.  The reason is that they dropped the ball on fixing the phone...(I still believe in security).  Said the closet door would be fixed.  It was propped up against the frame very loosely.  Went to ballgame and not a darn thing completed.  I told the morning desk clerk about the issue again!  Good luck to the next people inhabiting the room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r385383623-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>385383623</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites on a visit to Dallas/Arlington to see a Rangers game and view the town with our two teenage children. We rented a 2 bedroom suite.
+The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which...We stayed at TownePlace Suites on a visit to Dallas/Arlington to see a Rangers game and view the town with our two teenage children. We rented a 2 bedroom suite.The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which because she's short she didn't even pull out but said was very comfortable non the less.The Medium: Linen quality and towel quality is pretty low. Wasn't expecting higher given the type of establishment this was but just FYI. Also, I wish that the had the two bedroom option available with a king bed in the "main" room. There is certainly room for it and would be a nice option. The room has one bathroom and only one sink which is slightly small for a 2 bedroom but wasn't really an issue.The Bad: The beds squeak very loudly and you could barely get in or out of bed without waking everyone in the room. They weren't uncomfortable but could certainly use a pillow top option. Also, the complimentary snack in the evening though a great option was poorly managed compared to breakfast. We went down at 5:10 for service that started at 5 and all the food was gone. We were told that more would be put out soon but by 5:45 we got tired of waiting for the fajitas to be brought out. There was beer and wine which was nice, some chocolate cake my kids said was very good, and there was a salad "bar" which was fresh and was full until about 5:30 when people started eating that since everything else was gone. I'm not sure when/if they refilled the food. The second night was hot dogs and beans. Not a favorite so we skipped that but while standing there deciding what to do for dinner we again saw the food run out and not be replaced for a good 15 minutes... and which time we left.All in all I thought for the price this was a great hotel and I would absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites on a visit to Dallas/Arlington to see a Rangers game and view the town with our two teenage children. We rented a 2 bedroom suite.
+The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which...We stayed at TownePlace Suites on a visit to Dallas/Arlington to see a Rangers game and view the town with our two teenage children. We rented a 2 bedroom suite.The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which because she's short she didn't even pull out but said was very comfortable non the less.The Medium: Linen quality and towel quality is pretty low. Wasn't expecting higher given the type of establishment this was but just FYI. Also, I wish that the had the two bedroom option available with a king bed in the "main" room. There is certainly room for it and would be a nice option. The room has one bathroom and only one sink which is slightly small for a 2 bedroom but wasn't really an issue.The Bad: The beds squeak very loudly and you could barely get in or out of bed without waking everyone in the room. They weren't uncomfortable but could certainly use a pillow top option. Also, the complimentary snack in the evening though a great option was poorly managed compared to breakfast. We went down at 5:10 for service that started at 5 and all the food was gone. We were told that more would be put out soon but by 5:45 we got tired of waiting for the fajitas to be brought out. There was beer and wine which was nice, some chocolate cake my kids said was very good, and there was a salad "bar" which was fresh and was full until about 5:30 when people started eating that since everything else was gone. I'm not sure when/if they refilled the food. The second night was hot dogs and beans. Not a favorite so we skipped that but while standing there deciding what to do for dinner we again saw the food run out and not be replaced for a good 15 minutes... and which time we left.All in all I thought for the price this was a great hotel and I would absolutely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r369511602-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>369511602</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Staff is fabulous</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every time we visit our daughter. Kiandre and Raequel are wonderful. They always greet us with a smile and they remember that we are regulars. The rooms are clean and the cleaning staff does a nice job daily. The breakfast is good. Good variety of food. We will always choose this hotel when we are in Arlington.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>celia l, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every time we visit our daughter. Kiandre and Raequel are wonderful. They always greet us with a smile and they remember that we are regulars. The rooms are clean and the cleaning staff does a nice job daily. The breakfast is good. Good variety of food. We will always choose this hotel when we are in Arlington.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r363481174-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>363481174</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel with awesome people.</t>
+  </si>
+  <si>
+    <t>Great place, one of the best place you can stay, clean room friendly people. I always enjoy Marriott properties. The Hotel is very close to 6 flags. Great restaurants near. Just about everything you want and looking for with plenty of parking.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r360729922-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>360729922</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Wonderful staff!</t>
+  </si>
+  <si>
+    <t>Very friendly staff!  The manager Gayle was so personable!  Loved happy hour every evening and the complimentary breakfast was actually pretty good and they served different selections each day.  There is a courtyard in the back with a basketball court that the kids loved to play on .  The front desk also lent out basketballs for the kids to use.  Great hotel!  Will definitely be coming back when we are back in the area.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r359158592-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>359158592</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Great deal over spring break</t>
+  </si>
+  <si>
+    <t>Nice rooms with pull out sofa and kitchenette.  Great front desk staff and good breakfast.  All in all it was very good and got a great price last minute.  Wood stay here again!  Only thing I can say negative is that we did have a pack of kids above us and that woke us up at 6:00 am, but that is part of spring break.  I would suggest a top floor room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r355803983-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>355803983</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring break </t>
+  </si>
+  <si>
+    <t>Loved it staff was helpful and very nice would stay here again keep up the great work rooms were very clean and comfortable rooms had a full kitchen  close to stadium and six flags even had a kickback on Thursday night I can't say enough about this hotel we will be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r343888855-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>343888855</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel &amp; caring staff for a short stay!</t>
+  </si>
+  <si>
+    <t>I unexpectedly ended up having to find a hotel after my family's flight was diverted to another airport due to weather.  Since it was almost midnight and severe thunderstorm was in the area, most hotels around DFW did not have any vacancies.  I ended up finding out that there was 1 room left at this hotel, which I was extremely thankful for.  Upon my arrival (due to everything that took place that day and the fact that my grandmother's funeral was in 9 hours), I ended up sobbing at the front desk unexpectedly.  I usually never cry in front of anyone, so this was rather embarrassing.  The lady at the front desk was so nice, offered me some tissues and gave me hug.  I really appreciated that.  The room was the Towneplace standard.  It was clean &amp; comfortable.  The lobby and breakfast area were pretty modern and decently appointed.  The breakfast selection was acceptable. I was able to make a breakfast sandwich to take with me in the morning.  Overall, I was satisfied with this hotel &amp; the staff was amazing.  Treated me like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I unexpectedly ended up having to find a hotel after my family's flight was diverted to another airport due to weather.  Since it was almost midnight and severe thunderstorm was in the area, most hotels around DFW did not have any vacancies.  I ended up finding out that there was 1 room left at this hotel, which I was extremely thankful for.  Upon my arrival (due to everything that took place that day and the fact that my grandmother's funeral was in 9 hours), I ended up sobbing at the front desk unexpectedly.  I usually never cry in front of anyone, so this was rather embarrassing.  The lady at the front desk was so nice, offered me some tissues and gave me hug.  I really appreciated that.  The room was the Towneplace standard.  It was clean &amp; comfortable.  The lobby and breakfast area were pretty modern and decently appointed.  The breakfast selection was acceptable. I was able to make a breakfast sandwich to take with me in the morning.  Overall, I was satisfied with this hotel &amp; the staff was amazing.  Treated me like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r337410764-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>337410764</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel for the money!!!</t>
+  </si>
+  <si>
+    <t>This hotel exceeded my expectations.  Everyone I talked to told me the hotels around the stadium were not very nice.  This hotel is across the street from Hurricane Harbor, and very close to Six Flags.  We can see AT&amp;T Stadium (COWBOYS) and Globe Life Stadium (Rangers) also.  We actually walked from the stadium!!!  It took about 30 minutes and is about one and a half miles away,  We had a two bedroom suite.  The rooms are nice.  There is a tv in each room and out in the common area.  Closet space is plentiful.  Breakfast was a pleasant surprise.  We had breakfast burritos one day and make your own waffles everyday.  There is a heated outdoor pool, barbecue area and a small gym.  Although we didn't take advantage of these amenities, it's nice to know they are there.  We plan to come back to AT&amp;T stadium and will probably stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This hotel exceeded my expectations.  Everyone I talked to told me the hotels around the stadium were not very nice.  This hotel is across the street from Hurricane Harbor, and very close to Six Flags.  We can see AT&amp;T Stadium (COWBOYS) and Globe Life Stadium (Rangers) also.  We actually walked from the stadium!!!  It took about 30 minutes and is about one and a half miles away,  We had a two bedroom suite.  The rooms are nice.  There is a tv in each room and out in the common area.  Closet space is plentiful.  Breakfast was a pleasant surprise.  We had breakfast burritos one day and make your own waffles everyday.  There is a heated outdoor pool, barbecue area and a small gym.  Although we didn't take advantage of these amenities, it's nice to know they are there.  We plan to come back to AT&amp;T stadium and will probably stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r333121311-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>333121311</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>It was just okay</t>
+  </si>
+  <si>
+    <t>Was in town doing some training and stayed for 6 nights. The staff was very friendly and very helpful. Everyone seemed to have a smile on their face and they looked really cute dressed up like reindeer.The outside of the property looked great and appeared to be well maintained. The pool looked clean, minus the leaves (but it is December), and the grill area and basketball court were in good condition.Inside the buildings though you can see the age of the property. It just had an older feel to it, older carpet, older paint...it just showed its age. The room wasn't terribly big for a "suite", I felt kinda cramped but it was decorated in a very modern style with granite counters and contemporary furnishings. The bed was not the best, it was really firm and I didn't sleep terribly well. There was ALOT of noise coming from the hallways and really seemed like I had the door open it was so loud. The walls must be pretty thin.Breakfast in the morning was just okay I guess. It was the standard pre-made heat and eat eggs, potatoes and such. Nothing spectacular but not terrible.I am looking at switching over from HiltonHonors to Marriott Rewards and was trying this place out. My next stop is a Residence Inn in Oklahoma City, I'm hoping they do a better job of convincing me to switch.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Chelsea S, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Was in town doing some training and stayed for 6 nights. The staff was very friendly and very helpful. Everyone seemed to have a smile on their face and they looked really cute dressed up like reindeer.The outside of the property looked great and appeared to be well maintained. The pool looked clean, minus the leaves (but it is December), and the grill area and basketball court were in good condition.Inside the buildings though you can see the age of the property. It just had an older feel to it, older carpet, older paint...it just showed its age. The room wasn't terribly big for a "suite", I felt kinda cramped but it was decorated in a very modern style with granite counters and contemporary furnishings. The bed was not the best, it was really firm and I didn't sleep terribly well. There was ALOT of noise coming from the hallways and really seemed like I had the door open it was so loud. The walls must be pretty thin.Breakfast in the morning was just okay I guess. It was the standard pre-made heat and eat eggs, potatoes and such. Nothing spectacular but not terrible.I am looking at switching over from HiltonHonors to Marriott Rewards and was trying this place out. My next stop is a Residence Inn in Oklahoma City, I'm hoping they do a better job of convincing me to switch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r328820400-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>328820400</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>A good suite</t>
+  </si>
+  <si>
+    <t>We just returned from a weekend spent in Arlington for a wedding.  I was traveling with other members of my family.  After shopping around, the TownePlace Suites had by far the best price on a 2 room suite.  The living room was comfortable, and gave us enough space to have people stop by to watch a game after the rehearsal dinner.  The kitchen had more than everything we needed.  The bathroom was a bit cramped, but that was a minor detail.  Breakfast options were good and the hotel is located centrally for a lot of what the Arlington area has to offer.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r325482847-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325482847</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Hotel Changed our Reservation</t>
+  </si>
+  <si>
+    <t>We booked through jetsetter and all seemed fine until we received a message from the hotel approximately 1 week before our stay.  Apparently a large group extended their stay through the end of November which bumped my part and about 30 others out of the hotel.  We were moved to a hotel about 15 miles away which was obviously inconvenient as we were there for a Cowboys game and purposely chose a close hotel so we wouldn't have to choose between drinking and driving.  Our choice was take the other hotel or find a new one (one week before the game which would have been impossible) They did comp our stay at the other hotel, but there was no compensation offered if we chose to look for another hotel on our own.  In all, I'm pretty surprised this happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked through jetsetter and all seemed fine until we received a message from the hotel approximately 1 week before our stay.  Apparently a large group extended their stay through the end of November which bumped my part and about 30 others out of the hotel.  We were moved to a hotel about 15 miles away which was obviously inconvenient as we were there for a Cowboys game and purposely chose a close hotel so we wouldn't have to choose between drinking and driving.  Our choice was take the other hotel or find a new one (one week before the game which would have been impossible) They did comp our stay at the other hotel, but there was no compensation offered if we chose to look for another hotel on our own.  In all, I'm pretty surprised this happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r319915203-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>319915203</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Stay!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the moment I checked in I know this was the right place for me. Kiandra was at the front desk to welcome me with a pleasant smile. Breakfast was great and the atmosphere in the lobby was nice, Overall the rooms were clean and the staff was friendly.Great stay </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r306635775-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>306635775</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Love It</t>
+  </si>
+  <si>
+    <t>I love TownePlace Suites and this one is no different.  Great breakfast, great large room, friendly staff, great location.  Near Cowboy Stadium but the traffic can be overwhelming near the hotel.  Will be staying there again!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Chelsea S, Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>I love TownePlace Suites and this one is no different.  Great breakfast, great large room, friendly staff, great location.  Near Cowboy Stadium but the traffic can be overwhelming near the hotel.  Will be staying there again!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r293536305-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>293536305</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel...Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel and its across the street from the water park that's affiliated with six flags, hurricane harbor so you can save $ on parking by walking. If you wanted to you could also walk to the stadium, I'm not certain there's a way to walk to six flags, but it is potentially possible. The only thing lacking in the kitchen was an oven. But we survived without one. Having the kitchen saves a lot on food so you don't have to eat out. If we return next year, it's likely we will stay at this location again. The price can't be beat for the area as well as the value. Clean room, friendly staff (for the most part) and you even get food twice a day during part of the week! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chelsea S, Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel...Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel and its across the street from the water park that's affiliated with six flags, hurricane harbor so you can save $ on parking by walking. If you wanted to you could also walk to the stadium, I'm not certain there's a way to walk to six flags, but it is potentially possible. The only thing lacking in the kitchen was an oven. But we survived without one. Having the kitchen saves a lot on food so you don't have to eat out. If we return next year, it's likely we will stay at this location again. The price can't be beat for the area as well as the value. Clean room, friendly staff (for the most part) and you even get food twice a day during part of the week! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r281920374-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>281920374</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Conviently located near attractions.</t>
+  </si>
+  <si>
+    <t>We found this hotel to be near local attractions that we had planned to visit.  The continental breakfast was adequate to start the day.  The rooms were clean, cool and comfortable (pillows were not great).  The staff was friendly, however, we did not rent a car and the hotel staff was not very knowledgeable in public transportation options in their area.  Free trolley service is excellent for attending local attractions but operates only on a limited schedule.  We did a lot of walking to find restaurants in the area.  If you have a car it would be a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We found this hotel to be near local attractions that we had planned to visit.  The continental breakfast was adequate to start the day.  The rooms were clean, cool and comfortable (pillows were not great).  The staff was friendly, however, we did not rent a car and the hotel staff was not very knowledgeable in public transportation options in their area.  Free trolley service is excellent for attending local attractions but operates only on a limited schedule.  We did a lot of walking to find restaurants in the area.  If you have a car it would be a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r244803129-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>244803129</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>So much to do</t>
+  </si>
+  <si>
+    <t>A great comfortable hotel with friendly staff. It's located only a short driving distance from six flags park and the cowboys stadium. The is also an indoor kart track within walking distance. There are a number of good restaurant's again in walking distance and outlet shopping within a 20min drive. Thanks for making our stay memoriable :)</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r232142582-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>232142582</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Not the place to be</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday for an overnight so I could see a Texas Rangers Baseball game.to see a baseball game.  The plus side for this property is that they are a drop point for the shuttle to and from the ballpark.  On a 100 degree day/night, the pool was dirty and looked as though it had not been cleaned in days.  In Texas, that is not good.  At 6:00PM they closed the pool.  The elevator in our building broke mid afternoon and they said it would not be fixed until Tuesday at the earliest; Labor Day Weekend and all.  So much for ADA.  On our walk down the hall way on the first floor to climb the stairs to the third floor where our room was there was a large wet spot in the corridor from a pipe leak in a room that no one appeared to care about.What really annoyed me was the staff and the lack of care or customer service.  My wife and I love Marriott because of the level of service they provide and they consistently deliver a fine product.  Not here. If you like Marriott, there is a Springhill Suites or a Courtyard near by.  Otherwise, Hiton, Sheraton, Days Inn....they are all there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>TPS658, Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday for an overnight so I could see a Texas Rangers Baseball game.to see a baseball game.  The plus side for this property is that they are a drop point for the shuttle to and from the ballpark.  On a 100 degree day/night, the pool was dirty and looked as though it had not been cleaned in days.  In Texas, that is not good.  At 6:00PM they closed the pool.  The elevator in our building broke mid afternoon and they said it would not be fixed until Tuesday at the earliest; Labor Day Weekend and all.  So much for ADA.  On our walk down the hall way on the first floor to climb the stairs to the third floor where our room was there was a large wet spot in the corridor from a pipe leak in a room that no one appeared to care about.What really annoyed me was the staff and the lack of care or customer service.  My wife and I love Marriott because of the level of service they provide and they consistently deliver a fine product.  Not here. If you like Marriott, there is a Springhill Suites or a Courtyard near by.  Otherwise, Hiton, Sheraton, Days Inn....they are all there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r232068245-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>232068245</t>
+  </si>
+  <si>
+    <t>Great location for Six Flags, sporting events</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with Marriott points and it was fine. The room and facility were very clean, but it was obvious that the hotel has not been updated in a while (cultured marble instead of granite counters, etc.). The breakfasts were good with hot eggs, hard-boiled eggs, sausage and bacon, plus fresh fruit like strawberries. The hotel is in a great location if you are heading to a Rangers or Cowboys game.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r216236940-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>216236940</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Spent two nights here on a trip with my daughter.  Our room was clean and had everything we needed.  The staff was friendly and polite from the front desk clerk, the manager, and even the housekeepers.  We felt safe and loved the location.  We didn't have to drive to Hurricane Harbor because it really is just across the street!  During breakfast I noticed the food was fresh and they kept putting food out for us late risers.  The manager went around and made sure everyone was having a good stay and made the comment that she loves her job.  The pool and grounds were well maintained as well.  We will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent two nights here on a trip with my daughter.  Our room was clean and had everything we needed.  The staff was friendly and polite from the front desk clerk, the manager, and even the housekeepers.  We felt safe and loved the location.  We didn't have to drive to Hurricane Harbor because it really is just across the street!  During breakfast I noticed the food was fresh and they kept putting food out for us late risers.  The manager went around and made sure everyone was having a good stay and made the comment that she loves her job.  The pool and grounds were well maintained as well.  We will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r214468994-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>214468994</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Great family weekend!!!  Highly recommend!!!</t>
+  </si>
+  <si>
+    <t>Our family of 5 adults and 4 children,ages 1-15, were here June 27-30, 2014. We had two, two bedroom suites that were next to each other and perfect accommodations for our family reunion.  I was concerned after reading reviews but should not have been.  Beds were very comfortable, rooms in excellent condition, breakfast was good and enjoyed by all ages.  Having a full size kitchen was a plus with the children. Pool and basketball court were enjoyed by all. Josie and Tonya and the entire staff were so friendly and went out of their way to make our trip comfortable. If in the area again we will definitely stay there.  Wonderful experience and highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Our family of 5 adults and 4 children,ages 1-15, were here June 27-30, 2014. We had two, two bedroom suites that were next to each other and perfect accommodations for our family reunion.  I was concerned after reading reviews but should not have been.  Beds were very comfortable, rooms in excellent condition, breakfast was good and enjoyed by all ages.  Having a full size kitchen was a plus with the children. Pool and basketball court were enjoyed by all. Josie and Tonya and the entire staff were so friendly and went out of their way to make our trip comfortable. If in the area again we will definitely stay there.  Wonderful experience and highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r207432190-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>207432190</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Rode hard and put away wet</t>
+  </si>
+  <si>
+    <t>Positive:  responsive, hard-working evening desk agent
+Negative: facility shows many signs of use
+Located near major theme parks and athletic venues, and surrounded by a variety of restaurants, this hotel would seem to be an ideal place to stay. But the facility shows many signs of heavy use and multiple repairs. Overall, it suffers from outdated decor and design.
+We reserved a room for three nights over the Memorial Day weekend, hoping for a restful and relaxing holiday in the D/FW area. Alas, that's not how things turned out.
+Bumps, scrapes, dings, and more -
+Before describing some of the problems we observed, it's obvious management has attempted to affect repairs. In fact, contractors were reroofing and repairing the exterior during our stay, and the outside was slated for painting the following week.  
+Despite their efforts, opportunities for improvement abound. We wondered if repairs were being made on a piecemeal basis. If so, perhaps it's time for a wholesale cleaning and renovation.
+The room we were initially assigned contained a broken lamp and a grimy side chair marred by a large stain. The entire room smelled sweaty. During our brief time in that space we noticed occupants of the adjacent room weren't talking particularly loudly, but could heard plainly through the connecting door.
+I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we...Positive:  responsive, hard-working evening desk agentNegative: facility shows many signs of useLocated near major theme parks and athletic venues, and surrounded by a variety of restaurants, this hotel would seem to be an ideal place to stay. But the facility shows many signs of heavy use and multiple repairs. Overall, it suffers from outdated decor and design.We reserved a room for three nights over the Memorial Day weekend, hoping for a restful and relaxing holiday in the D/FW area. Alas, that's not how things turned out.Bumps, scrapes, dings, and more -Before describing some of the problems we observed, it's obvious management has attempted to affect repairs. In fact, contractors were reroofing and repairing the exterior during our stay, and the outside was slated for painting the following week.  Despite their efforts, opportunities for improvement abound. We wondered if repairs were being made on a piecemeal basis. If so, perhaps it's time for a wholesale cleaning and renovation.The room we were initially assigned contained a broken lamp and a grimy side chair marred by a large stain. The entire room smelled sweaty. During our brief time in that space we noticed occupants of the adjacent room weren't talking particularly loudly, but could heard plainly through the connecting door.I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we decided to stay there. But it still showed signs of heavy use. For example, one of the bathroom towel racks was bent, kitchen flooring had a gash, and one sofa cushion had a zipper that wouldn't close. The other cushion was so compressed it was uncomfortable to sit upon.With exception of the lobby, which was bright and inviting, wear and tear was evident throughout public areas. Examples of hard use were everywhere. The frame around the elevator control panel was broken. Paint covered scars on some doors, but many were smudged. Door frames have been repainted, but several on the third floor weren't painted all the way to the floor. Ceiling tiles in the second floor hallway sagged.During our stay we began to think of the elevator as our own little thrill ride, like those at amusement parks across the street. It creaked, bumped, and groaned between floors, a lot like a roller coaster.We prefer a king-size bed,  but this hotel only offers queen beds. Consequently, suites are smaller than those at other TownePlace Suites we regularly visit. Rooms also lack cabinets and dressers provided in newer hotels. We stored dirty clothes inside nightstands, and pushed bags and other incidentals against walls to get them out of the way.While we consider quality of finishes a minor point, we did notice some materials used here were dated or were not the same as seen elsewhere. The bathroom was outfitted with oak veneer cabinets. The floor was covered with vinyl and the shower was sheathed with what appeared to be plastic slabs, not tile. However, we were surprised a separate exhaust fan was provided; it's amazing how many hotel bathrooms lack any kind of ventilation.Despite it's utilitarian appearance, the bath area was cleaned regularly (kudos to housekeeping) and certainly provided all required functionality. Best of all, the toilet, faucets and drains worked without a hitch! Our mattress was extremely hard and lumpy, and the wall-mounted air conditioning unit was difficult to control. Together, these two components made for unusually restless nights.  During most trips we acclimate to surroundings the first night and sleep well the remainder of a stay. This time we didn't sleep well any evening. Each morning my wife and I both awoke stiff and tired, with headaches and backaches.With two treadmills, an elliptical, and free weight bench, the exercise room was typical of other hotels we've visited. Televisions were attached to the treadmills, but the set on the treadmill I rode produced a static-filled picture on the few channels it received. I turned the set off after a few minutes.The weekend we visited, several youth sports teams were also at the hotel. Everyone was well-behaved and really didn't make a lot of noise, but they tended to monopolize public areas including the lobby, outdoor pool, and already tight parking lot. They also kept the staff busy with requests.Breakfast boondoggles -We weren't able to try breakfast. The first two mornings, the small eating area was so crowded we had no place to sit. Our final morning, Memorial Day, we arrived just after 9:00 a.m. to find a housekeeper putting food away. She offered waffles and summarily dismissed us as she continued to move items off the breakfast bar.  We honestly had looked extensively for serving hours in the lobby and our room and  found no mention anywhere. No signs were posted and nothing was listed in our room directory. In retrospect, we should have verified with the front desk. However, we really thought hours would be extended or shifted due to the holiday.As we left the dining area on day three, a family with young children arrived looking for food. We felt sorry for them. Perhaps they were allowed to make waffles...we don't know.A bit of good news -The Marriott brand enjoys a good reputation because of their high-quality facilities and commitment to customer service. The evening desk agent was the saving grace of our visit. She  was a rock star, responding to requests and trying hard to make up for situations we encountered. Friendly and professional, she resolved problems quickly in a satisfactory manner.Back to less pleasant experiences -Housekeepers were a different matter. We've always been impressed at the way staff members in other Marriott properties acknowledged us, often with a smile. Most housekeepers at this hotel were aloof. Many turned away when we approached.In fairness, I must report the last two housekeepers we saw did acknowledge us by smiling and nodding their heads. I think it was a coincidence we were carrying luggage out of the building at the time. Perhaps they wanted to provide a pleasant memory of our visit.In other hotels, employees that work the breakfast bar are often the most gregarious and attentive staff members. They often engage in conversation and are typically very responsive. Although we didn't eat breakfast during our stay, we did dodge crowds to pick up cartons of milk, and noticed the keeper of the breakfast bar lacked personality. The one time we spoke directly, we were dismissed with few words. Talking with patrons is probably not a requirement of that job, but it really enhances the customer experience.The Bottom Line -In many ways, our experience was a lot like a mound of pebbles. Individually, most problems we encountered were relatively insignificant. A scratch here, a wayward door there could easily be overlooked. Lumped together, these conditions became a significant pile that was difficult to deal with.If you're unfamiliar with the title of this review, "rode hard and put away wet" refers to a horse that's given maximum effort but is not properly cared for at the end of the day. In our opinion, this phrase describes TownePlace Suites-Arlington quite well.Across the years we've stayed at hotels with fewer amenities, but they were advertised as lower-level lodging. We expected less when reservations were made. We've also stayed at hotels that were in worse condition, but of course we didn't return to them.The past decade we've tried over a dozen Marriott properties in the Dallas area alone. A couple of months ago we visited the Fairfield Inn two miles east of this hotel, located at the opposite end of Lamar Boulevard. We found that hotel somewhat noisy due to it's proximity to I-20, but generally was a superior property.We've also stayed at the nearby Arlington SpringHill Suites, but that was several years ago. Given our experience then, we'd also choose it over this hotelPost-script -The final morning of our stay, a housekeeper tried repeatedly to enter our room about 7:15 a.m. It was a holiday, for goodness sake! We were still sleeping, not comfortably, but sleeping nonetheless. In many ways, this experience was a fitting end to a rather uncomfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>General M, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Positive:  responsive, hard-working evening desk agent
+Negative: facility shows many signs of use
+Located near major theme parks and athletic venues, and surrounded by a variety of restaurants, this hotel would seem to be an ideal place to stay. But the facility shows many signs of heavy use and multiple repairs. Overall, it suffers from outdated decor and design.
+We reserved a room for three nights over the Memorial Day weekend, hoping for a restful and relaxing holiday in the D/FW area. Alas, that's not how things turned out.
+Bumps, scrapes, dings, and more -
+Before describing some of the problems we observed, it's obvious management has attempted to affect repairs. In fact, contractors were reroofing and repairing the exterior during our stay, and the outside was slated for painting the following week.  
+Despite their efforts, opportunities for improvement abound. We wondered if repairs were being made on a piecemeal basis. If so, perhaps it's time for a wholesale cleaning and renovation.
+The room we were initially assigned contained a broken lamp and a grimy side chair marred by a large stain. The entire room smelled sweaty. During our brief time in that space we noticed occupants of the adjacent room weren't talking particularly loudly, but could heard plainly through the connecting door.
+I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we...Positive:  responsive, hard-working evening desk agentNegative: facility shows many signs of useLocated near major theme parks and athletic venues, and surrounded by a variety of restaurants, this hotel would seem to be an ideal place to stay. But the facility shows many signs of heavy use and multiple repairs. Overall, it suffers from outdated decor and design.We reserved a room for three nights over the Memorial Day weekend, hoping for a restful and relaxing holiday in the D/FW area. Alas, that's not how things turned out.Bumps, scrapes, dings, and more -Before describing some of the problems we observed, it's obvious management has attempted to affect repairs. In fact, contractors were reroofing and repairing the exterior during our stay, and the outside was slated for painting the following week.  Despite their efforts, opportunities for improvement abound. We wondered if repairs were being made on a piecemeal basis. If so, perhaps it's time for a wholesale cleaning and renovation.The room we were initially assigned contained a broken lamp and a grimy side chair marred by a large stain. The entire room smelled sweaty. During our brief time in that space we noticed occupants of the adjacent room weren't talking particularly loudly, but could heard plainly through the connecting door.I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we decided to stay there. But it still showed signs of heavy use. For example, one of the bathroom towel racks was bent, kitchen flooring had a gash, and one sofa cushion had a zipper that wouldn't close. The other cushion was so compressed it was uncomfortable to sit upon.With exception of the lobby, which was bright and inviting, wear and tear was evident throughout public areas. Examples of hard use were everywhere. The frame around the elevator control panel was broken. Paint covered scars on some doors, but many were smudged. Door frames have been repainted, but several on the third floor weren't painted all the way to the floor. Ceiling tiles in the second floor hallway sagged.During our stay we began to think of the elevator as our own little thrill ride, like those at amusement parks across the street. It creaked, bumped, and groaned between floors, a lot like a roller coaster.We prefer a king-size bed,  but this hotel only offers queen beds. Consequently, suites are smaller than those at other TownePlace Suites we regularly visit. Rooms also lack cabinets and dressers provided in newer hotels. We stored dirty clothes inside nightstands, and pushed bags and other incidentals against walls to get them out of the way.While we consider quality of finishes a minor point, we did notice some materials used here were dated or were not the same as seen elsewhere. The bathroom was outfitted with oak veneer cabinets. The floor was covered with vinyl and the shower was sheathed with what appeared to be plastic slabs, not tile. However, we were surprised a separate exhaust fan was provided; it's amazing how many hotel bathrooms lack any kind of ventilation.Despite it's utilitarian appearance, the bath area was cleaned regularly (kudos to housekeeping) and certainly provided all required functionality. Best of all, the toilet, faucets and drains worked without a hitch! Our mattress was extremely hard and lumpy, and the wall-mounted air conditioning unit was difficult to control. Together, these two components made for unusually restless nights.  During most trips we acclimate to surroundings the first night and sleep well the remainder of a stay. This time we didn't sleep well any evening. Each morning my wife and I both awoke stiff and tired, with headaches and backaches.With two treadmills, an elliptical, and free weight bench, the exercise room was typical of other hotels we've visited. Televisions were attached to the treadmills, but the set on the treadmill I rode produced a static-filled picture on the few channels it received. I turned the set off after a few minutes.The weekend we visited, several youth sports teams were also at the hotel. Everyone was well-behaved and really didn't make a lot of noise, but they tended to monopolize public areas including the lobby, outdoor pool, and already tight parking lot. They also kept the staff busy with requests.Breakfast boondoggles -We weren't able to try breakfast. The first two mornings, the small eating area was so crowded we had no place to sit. Our final morning, Memorial Day, we arrived just after 9:00 a.m. to find a housekeeper putting food away. She offered waffles and summarily dismissed us as she continued to move items off the breakfast bar.  We honestly had looked extensively for serving hours in the lobby and our room and  found no mention anywhere. No signs were posted and nothing was listed in our room directory. In retrospect, we should have verified with the front desk. However, we really thought hours would be extended or shifted due to the holiday.As we left the dining area on day three, a family with young children arrived looking for food. We felt sorry for them. Perhaps they were allowed to make waffles...we don't know.A bit of good news -The Marriott brand enjoys a good reputation because of their high-quality facilities and commitment to customer service. The evening desk agent was the saving grace of our visit. She  was a rock star, responding to requests and trying hard to make up for situations we encountered. Friendly and professional, she resolved problems quickly in a satisfactory manner.Back to less pleasant experiences -Housekeepers were a different matter. We've always been impressed at the way staff members in other Marriott properties acknowledged us, often with a smile. Most housekeepers at this hotel were aloof. Many turned away when we approached.In fairness, I must report the last two housekeepers we saw did acknowledge us by smiling and nodding their heads. I think it was a coincidence we were carrying luggage out of the building at the time. Perhaps they wanted to provide a pleasant memory of our visit.In other hotels, employees that work the breakfast bar are often the most gregarious and attentive staff members. They often engage in conversation and are typically very responsive. Although we didn't eat breakfast during our stay, we did dodge crowds to pick up cartons of milk, and noticed the keeper of the breakfast bar lacked personality. The one time we spoke directly, we were dismissed with few words. Talking with patrons is probably not a requirement of that job, but it really enhances the customer experience.The Bottom Line -In many ways, our experience was a lot like a mound of pebbles. Individually, most problems we encountered were relatively insignificant. A scratch here, a wayward door there could easily be overlooked. Lumped together, these conditions became a significant pile that was difficult to deal with.If you're unfamiliar with the title of this review, "rode hard and put away wet" refers to a horse that's given maximum effort but is not properly cared for at the end of the day. In our opinion, this phrase describes TownePlace Suites-Arlington quite well.Across the years we've stayed at hotels with fewer amenities, but they were advertised as lower-level lodging. We expected less when reservations were made. We've also stayed at hotels that were in worse condition, but of course we didn't return to them.The past decade we've tried over a dozen Marriott properties in the Dallas area alone. A couple of months ago we visited the Fairfield Inn two miles east of this hotel, located at the opposite end of Lamar Boulevard. We found that hotel somewhat noisy due to it's proximity to I-20, but generally was a superior property.We've also stayed at the nearby Arlington SpringHill Suites, but that was several years ago. Given our experience then, we'd also choose it over this hotelPost-script -The final morning of our stay, a housekeeper tried repeatedly to enter our room about 7:15 a.m. It was a holiday, for goodness sake! We were still sleeping, not comfortably, but sleeping nonetheless. In many ways, this experience was a fitting end to a rather uncomfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r202250583-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>202250583</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This hotel was fabulous!  The rooms were large and very clean.  The staff was courteous and always greeted us when we would cross paths.  The location was easy to get to and close to places we were visiting.  I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r197138666-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>197138666</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This hotel could not be located better, Water Park across the road, literally. Six Flags over Texas, Dallas Cowbows arena and Texas Rangers ballpark all within a 15 mins drive.The hotel is very well appointed, full kitchens, comfortable beds, although I think they do need new medium mattresses, the present ones are too soft.The staff could not be more helpful, from reception to the cleaning staff all are friendly and look to be happy in their work. There is a breakfast but as it finishes at 9am we didn't partake, but as we had a kitchen it wasn't an issue, prefer a relaxed start .to the day</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r194262459-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>194262459</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Clean and safe</t>
+  </si>
+  <si>
+    <t>We stayed here last night to be close to AT&amp;T Stadium for a Supercross event. It is updated, clean and safe.  Also pet friendly. Not a five star property but a solid 3. This hotel is great for the money and very close to the football and baseball stadiums, as well as Six Flags and Hurricane Harbor. Nice pool area and breakfast is included. Would be great for families. Also, extended stay.  Kitchenette in the room.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r174721220-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>174721220</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Great stay for weekend at Hurricane Harbor</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Six Flags Hurricane Harbor this weekend.  It is right across the street.  Great stay!!  The people working here were very friendly and welcoming.  Breakfast was great,  eggs, sausage, waffles, bagels, fruit, cereal,ect. Was wonderful!  Clean rooms with kitchenettes.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r170218034-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>170218034</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Location is good for 6 flags or the Ball Park. They do not have King Beds at all. It is an older complex. Beds are average and seem more like doubles than Queens to me. Our shower leaked water every where flooded bathroom floor. A/C did not blow cold air. Night shift girl was excellent. Very accommodating did everything she could to move us to another room quickly. She was very professional.  Next morning Manager said she could not pull up our bill to adjust it for the inconvenience of changing rooms or help us in any way but would look at it later. Hmmm. What are the odds? The only thing I could give this a high rating would be the service we received from the young woman running the desk at night. MoreShow less</t>
+  </si>
+  <si>
+    <t>Location is good for 6 flags or the Ball Park. They do not have King Beds at all. It is an older complex. Beds are average and seem more like doubles than Queens to me. Our shower leaked water every where flooded bathroom floor. A/C did not blow cold air. Night shift girl was excellent. Very accommodating did everything she could to move us to another room quickly. She was very professional.  Next morning Manager said she could not pull up our bill to adjust it for the inconvenience of changing rooms or help us in any way but would look at it later. Hmmm. What are the odds? The only thing I could give this a high rating would be the service we received from the young woman running the desk at night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r163581292-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>163581292</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Review from a Travel Agent, should have stayed at Residence Inn.</t>
+  </si>
+  <si>
+    <t>Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons...Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons and knives. Also room sleeps 4 but only plates, glasses and silverware for 3.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons...Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons and knives. Also room sleeps 4 but only plates, glasses and silverware for 3.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r161087122-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>161087122</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Value for money hotel.</t>
+  </si>
+  <si>
+    <t>This is my 2nd time in this hotel and I think it has improved from a lot from my previous stayed. Overall this hotel is value for money. It has Wi-Fi now. Sweet! My last stay I was struggling for Wi-Fi I have to go the reception. Now I can get it in my room. Also I requested a ground floor the request was granted. What a great place to enjoy my stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r160754059-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160754059</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Average but friendly staff</t>
+  </si>
+  <si>
+    <t>This hotel was average at best but what set it apart was the friendly desk staff, we checked in late after a long day of travel and the staffer on duty was pleasant, friendly and efficient.  The room was clean, a little dated, nothing fancy but fine - a decent value for the price.  The breakfast hours could be better - 7am was too late, we already had to be long gone by 7 am each morning.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r147344922-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>147344922</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Nothing Fancy; Just Fine</t>
+  </si>
+  <si>
+    <t>I stayed here one night while visiting Dallas for business.  The hotel's location is fine -- close to where my business was located.  The hotel has easy road access, a large parking lot, and is near several restaurants (mostly chains) and a Whole Foods Market.
+I had a pretty late arrival.  Kudos to the staff; the woman who checked me in was exceedingly polite and welcoming.  She was also efficient.  I was offered a free snack out of the market due to my Marriott status -- a nice gesture.
+The hotel is pretty basic in terms of its facilities -- nothing fancy.  But that was fine; I wasn't expecting grandeur from this brand within the Marriott portfolio.  The hallways (while a bit stark) were clean.  My room was very tidy.  I was in a studio suite, and I was pleased with its size -- a small kitchen (although it had a full stove and oven), couch and chair, desk, and bed.  The bed was very comfortable, with a nice mattress and fresh, soft linens.  I was surprised at the quality of the bed; it was much nicer than the beds I typically get at Courtyard and SpringHill Suites properties.
+Check-out was similarly good; I was thanked for my business and everything was efficient.
+Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when...I stayed here one night while visiting Dallas for business.  The hotel's location is fine -- close to where my business was located.  The hotel has easy road access, a large parking lot, and is near several restaurants (mostly chains) and a Whole Foods Market.I had a pretty late arrival.  Kudos to the staff; the woman who checked me in was exceedingly polite and welcoming.  She was also efficient.  I was offered a free snack out of the market due to my Marriott status -- a nice gesture.The hotel is pretty basic in terms of its facilities -- nothing fancy.  But that was fine; I wasn't expecting grandeur from this brand within the Marriott portfolio.  The hallways (while a bit stark) were clean.  My room was very tidy.  I was in a studio suite, and I was pleased with its size -- a small kitchen (although it had a full stove and oven), couch and chair, desk, and bed.  The bed was very comfortable, with a nice mattress and fresh, soft linens.  I was surprised at the quality of the bed; it was much nicer than the beds I typically get at Courtyard and SpringHill Suites properties.Check-out was similarly good; I was thanked for my business and everything was efficient.Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when I return to Dallas, but I certainly would. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I stayed here one night while visiting Dallas for business.  The hotel's location is fine -- close to where my business was located.  The hotel has easy road access, a large parking lot, and is near several restaurants (mostly chains) and a Whole Foods Market.
+I had a pretty late arrival.  Kudos to the staff; the woman who checked me in was exceedingly polite and welcoming.  She was also efficient.  I was offered a free snack out of the market due to my Marriott status -- a nice gesture.
+The hotel is pretty basic in terms of its facilities -- nothing fancy.  But that was fine; I wasn't expecting grandeur from this brand within the Marriott portfolio.  The hallways (while a bit stark) were clean.  My room was very tidy.  I was in a studio suite, and I was pleased with its size -- a small kitchen (although it had a full stove and oven), couch and chair, desk, and bed.  The bed was very comfortable, with a nice mattress and fresh, soft linens.  I was surprised at the quality of the bed; it was much nicer than the beds I typically get at Courtyard and SpringHill Suites properties.
+Check-out was similarly good; I was thanked for my business and everything was efficient.
+Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when...I stayed here one night while visiting Dallas for business.  The hotel's location is fine -- close to where my business was located.  The hotel has easy road access, a large parking lot, and is near several restaurants (mostly chains) and a Whole Foods Market.I had a pretty late arrival.  Kudos to the staff; the woman who checked me in was exceedingly polite and welcoming.  She was also efficient.  I was offered a free snack out of the market due to my Marriott status -- a nice gesture.The hotel is pretty basic in terms of its facilities -- nothing fancy.  But that was fine; I wasn't expecting grandeur from this brand within the Marriott portfolio.  The hallways (while a bit stark) were clean.  My room was very tidy.  I was in a studio suite, and I was pleased with its size -- a small kitchen (although it had a full stove and oven), couch and chair, desk, and bed.  The bed was very comfortable, with a nice mattress and fresh, soft linens.  I was surprised at the quality of the bed; it was much nicer than the beds I typically get at Courtyard and SpringHill Suites properties.Check-out was similarly good; I was thanked for my business and everything was efficient.Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when I return to Dallas, but I certainly would. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r139429806-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>139429806</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Convenient to Cowboy Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly what I expected in an extended stay hotel. We picked it solely based on its proximity to Cowboy Stadium.  Reasonably priced. Since the football game was in the evening, we crossed the street and went to Hurricane Harbor during the day. If you are going to a football game or to the water park you really don't need to rent a car. We could have taken a cab from the airport (about 5-10 miles) and walked or taken hotel trolley to the stadium. Small pool and courtyard. Very nice hot breakfast included in the price. Not fancy, very utilitarian. Got what we paid for and expected. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r139383607-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>139383607</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I don't have anything bad to say about this hotel that would not be nit picking.  The staff was friendly, the room and lobby clean and the breakfast buffet each morning was fantastic!  We went for the Alabama/Michigan game and chose the hotel based on its' proximity to the stadium.  If you go for a game at Cowboy's stadium, you just about can't do better than here.  It's within walking distance (unless it's 101 degrees like it was when we were there).  The rooms have a small seating area and a kitchenette with a full sized refrigerator.  Tha bathroom was large and the water pressure was adequate. Nice pool that gets some shade in the afternoon. They also have a large gas grill, a basketball court and some outdoor seating under a gazebo.  But they really shine with breakfast, which is included with your room rate.  Eggs, bacon/sausage, hash browns, biscuits/bagels/muffins, oatmeal, cereal (a huge selection) coffee, juice, milk, yogurt and a make your own waffle station.  
+If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great...I don't have anything bad to say about this hotel that would not be nit picking.  The staff was friendly, the room and lobby clean and the breakfast buffet each morning was fantastic!  We went for the Alabama/Michigan game and chose the hotel based on its' proximity to the stadium.  If you go for a game at Cowboy's stadium, you just about can't do better than here.  It's within walking distance (unless it's 101 degrees like it was when we were there).  The rooms have a small seating area and a kitchenette with a full sized refrigerator.  Tha bathroom was large and the water pressure was adequate. Nice pool that gets some shade in the afternoon. They also have a large gas grill, a basketball court and some outdoor seating under a gazebo.  But they really shine with breakfast, which is included with your room rate.  Eggs, bacon/sausage, hash browns, biscuits/bagels/muffins, oatmeal, cereal (a huge selection) coffee, juice, milk, yogurt and a make your own waffle station.  If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great and I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I don't have anything bad to say about this hotel that would not be nit picking.  The staff was friendly, the room and lobby clean and the breakfast buffet each morning was fantastic!  We went for the Alabama/Michigan game and chose the hotel based on its' proximity to the stadium.  If you go for a game at Cowboy's stadium, you just about can't do better than here.  It's within walking distance (unless it's 101 degrees like it was when we were there).  The rooms have a small seating area and a kitchenette with a full sized refrigerator.  Tha bathroom was large and the water pressure was adequate. Nice pool that gets some shade in the afternoon. They also have a large gas grill, a basketball court and some outdoor seating under a gazebo.  But they really shine with breakfast, which is included with your room rate.  Eggs, bacon/sausage, hash browns, biscuits/bagels/muffins, oatmeal, cereal (a huge selection) coffee, juice, milk, yogurt and a make your own waffle station.  
+If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great...I don't have anything bad to say about this hotel that would not be nit picking.  The staff was friendly, the room and lobby clean and the breakfast buffet each morning was fantastic!  We went for the Alabama/Michigan game and chose the hotel based on its' proximity to the stadium.  If you go for a game at Cowboy's stadium, you just about can't do better than here.  It's within walking distance (unless it's 101 degrees like it was when we were there).  The rooms have a small seating area and a kitchenette with a full sized refrigerator.  Tha bathroom was large and the water pressure was adequate. Nice pool that gets some shade in the afternoon. They also have a large gas grill, a basketball court and some outdoor seating under a gazebo.  But they really shine with breakfast, which is included with your room rate.  Eggs, bacon/sausage, hash browns, biscuits/bagels/muffins, oatmeal, cereal (a huge selection) coffee, juice, milk, yogurt and a make your own waffle station.  If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great and I'd stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r138131549-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>138131549</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>High use showing on this prime location hotel</t>
+  </si>
+  <si>
+    <t>Staff was great on arrival.  Needed to upgrade to a larger room and they were very helpful with making the change.  The hotel is at Six Flags and looks like it gets alot of use.  The room was ok but not spectacular.  It was showing signs of over use.  The couch had multiple stains and the carpet was well worn.  The Bathtub didn't drain very well and filled up when you showered.  Only stayed one night and it was comfortable and the morning breakfast was very good.  Don't know if i'd stay there again though.  Might want to consider upgrading there furniture.  Almost forgot we were on the third floor and on checkout the only elevator was out of service so we had to walk down 3 flights of stairs with our bags.  Again another sign of overuse and neglect of maintenance.  On second thought i would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Bobby B, General Manager at TownePlace Suites Dallas Arlington North, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Staff was great on arrival.  Needed to upgrade to a larger room and they were very helpful with making the change.  The hotel is at Six Flags and looks like it gets alot of use.  The room was ok but not spectacular.  It was showing signs of over use.  The couch had multiple stains and the carpet was well worn.  The Bathtub didn't drain very well and filled up when you showered.  Only stayed one night and it was comfortable and the morning breakfast was very good.  Don't know if i'd stay there again though.  Might want to consider upgrading there furniture.  Almost forgot we were on the third floor and on checkout the only elevator was out of service so we had to walk down 3 flights of stairs with our bags.  Again another sign of overuse and neglect of maintenance.  On second thought i would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r134645704-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>134645704</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Another great stay!</t>
+  </si>
+  <si>
+    <t>Excellent staff!Great breakfast!  Love those Texas waffles!Couldn't ask for better location while visiting Hurricane Harbor.They have upgraded the tv in every room.We will continue to make TownePlace our favorite Arlington hotel.Our only complaint... No WiFi in room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r133806139-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133806139</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Extended stay was comfortable</t>
+  </si>
+  <si>
+    <t>We stayed five nights at the Townplace Suites in Arilington.  The location is ideal for Six Flags Hurricane Harbor, and very convenient to Six Flags Texas, and the Cowboys' and Rangers' stadiums, especially with the free trolley service to these locations.  Restaurants, gas stations, and other shopping are plentiful in the area.
+Our suite had two separate bedrooms, a living room with a sleeper sofa, a kitchen with microwave, stove/oven, and refrigerator, and one bathroom.  Others have complained about having only one bedroom in a room that can accomodate six, however it was sufficient for our family of five.  The tub/shower/commode was separated from the sink area by a door, and a second door was between the sink area and the living room so several people could occupy the bathroom at the same time.
+We experienced minor problems with the room--one of the three tv sets had intermittent reception problems, and the commode handle had to be held down for it to flush completely--but these were so small we didn't even mention them to the staff.  The central A/C worked well with one thermostat in the living area and vents in all rooms.
+The pool was clean and at a comforable temperature.  Breakfast was typical for chain hotels, although they also have evening "receptions" on selected days with assorted food for free...nothing fancy, but a nice added amenity.
+Most mornings we were not all up and out of the room...We stayed five nights at the Townplace Suites in Arilington.  The location is ideal for Six Flags Hurricane Harbor, and very convenient to Six Flags Texas, and the Cowboys' and Rangers' stadiums, especially with the free trolley service to these locations.  Restaurants, gas stations, and other shopping are plentiful in the area.Our suite had two separate bedrooms, a living room with a sleeper sofa, a kitchen with microwave, stove/oven, and refrigerator, and one bathroom.  Others have complained about having only one bedroom in a room that can accomodate six, however it was sufficient for our family of five.  The tub/shower/commode was separated from the sink area by a door, and a second door was between the sink area and the living room so several people could occupy the bathroom at the same time.We experienced minor problems with the room--one of the three tv sets had intermittent reception problems, and the commode handle had to be held down for it to flush completely--but these were so small we didn't even mention them to the staff.  The central A/C worked well with one thermostat in the living area and vents in all rooms.The pool was clean and at a comforable temperature.  Breakfast was typical for chain hotels, although they also have evening "receptions" on selected days with assorted food for free...nothing fancy, but a nice added amenity.Most mornings we were not all up and out of the room in time for it to be serviced, but we had no trouble getting fresh towels when we needed them.  The sheets are not changed daily for an extended stay, however I think we could have requested that service if we desired.Parking is free and a larger lot is located at the rear of the buildings.  A single smallish elevator serviced the 3-story building we were in, and it was located at the north end of the building at the opposite end as the lobby--a better design would have been to place it in the middle of the building so all rooms were conveniently close.  One note, the east building is connected to the lobby, while the west building is not.  It is only a couple of feet away, but on a cold winter day you might appreciate staying inside to get to your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed five nights at the Townplace Suites in Arilington.  The location is ideal for Six Flags Hurricane Harbor, and very convenient to Six Flags Texas, and the Cowboys' and Rangers' stadiums, especially with the free trolley service to these locations.  Restaurants, gas stations, and other shopping are plentiful in the area.
+Our suite had two separate bedrooms, a living room with a sleeper sofa, a kitchen with microwave, stove/oven, and refrigerator, and one bathroom.  Others have complained about having only one bedroom in a room that can accomodate six, however it was sufficient for our family of five.  The tub/shower/commode was separated from the sink area by a door, and a second door was between the sink area and the living room so several people could occupy the bathroom at the same time.
+We experienced minor problems with the room--one of the three tv sets had intermittent reception problems, and the commode handle had to be held down for it to flush completely--but these were so small we didn't even mention them to the staff.  The central A/C worked well with one thermostat in the living area and vents in all rooms.
+The pool was clean and at a comforable temperature.  Breakfast was typical for chain hotels, although they also have evening "receptions" on selected days with assorted food for free...nothing fancy, but a nice added amenity.
+Most mornings we were not all up and out of the room...We stayed five nights at the Townplace Suites in Arilington.  The location is ideal for Six Flags Hurricane Harbor, and very convenient to Six Flags Texas, and the Cowboys' and Rangers' stadiums, especially with the free trolley service to these locations.  Restaurants, gas stations, and other shopping are plentiful in the area.Our suite had two separate bedrooms, a living room with a sleeper sofa, a kitchen with microwave, stove/oven, and refrigerator, and one bathroom.  Others have complained about having only one bedroom in a room that can accomodate six, however it was sufficient for our family of five.  The tub/shower/commode was separated from the sink area by a door, and a second door was between the sink area and the living room so several people could occupy the bathroom at the same time.We experienced minor problems with the room--one of the three tv sets had intermittent reception problems, and the commode handle had to be held down for it to flush completely--but these were so small we didn't even mention them to the staff.  The central A/C worked well with one thermostat in the living area and vents in all rooms.The pool was clean and at a comforable temperature.  Breakfast was typical for chain hotels, although they also have evening "receptions" on selected days with assorted food for free...nothing fancy, but a nice added amenity.Most mornings we were not all up and out of the room in time for it to be serviced, but we had no trouble getting fresh towels when we needed them.  The sheets are not changed daily for an extended stay, however I think we could have requested that service if we desired.Parking is free and a larger lot is located at the rear of the buildings.  A single smallish elevator serviced the 3-story building we were in, and it was located at the north end of the building at the opposite end as the lobby--a better design would have been to place it in the middle of the building so all rooms were conveniently close.  One note, the east building is connected to the lobby, while the west building is not.  It is only a couple of feet away, but on a cold winter day you might appreciate staying inside to get to your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r116679784-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116679784</t>
+  </si>
+  <si>
+    <t>08/13/2011</t>
+  </si>
+  <si>
+    <t>best location to Hurricane Harbor</t>
+  </si>
+  <si>
+    <t>The best hotel for Hurricane Harbor....you can walk across the street to the entrance, so you dont pay for parking.  Hotel parking free.  The best free hot breakfast ever...eggs, bacon, texas waffles, tortillas, cereal, oatmeal, toast, etc.  Daughter swam in pool, fine.  Room was nice, air worked, flat screen tv, kitchen with full fridge, stove/oven, coffee pot all for $89.00 a night, can't beat that.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r90036870-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>90036870</t>
+  </si>
+  <si>
+    <t>12/16/2010</t>
+  </si>
+  <si>
+    <t>Excellent accommodations, location, managerial and housekeeping staff</t>
+  </si>
+  <si>
+    <t>Towneplace Suites is a great location in Arlington,Tx.  Convenient to attactions and restarurants and major interstates. The property is clean. The managerial staff if very accommodating; the maintenance staff is efficient and the housekeeping staff is pleasant and effecient. The rooms are nice and they have discount tickets to attractions available; it is on the trolley route; they serve breakfast 7 days a week and light snacks from 5:30-7 3 or 4 night a week.  They keep updated information/schedules for events and professional sports teams (Texas Rangers and Dallas Cowboys).</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r74629318-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>74629318</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>Hurricane Harbor Best Stay</t>
+  </si>
+  <si>
+    <t>Traveled with family (6 of us) to Sixflags over Texas and Sixflags Hurricane Harbor.  Stayed in 2 bedroom with 1 bathroom and full kitchen.  The breakfast buffet was excellent!  Having the social on Monday through Thursday evenings was a plus.  Saved money taking the trolley to Sixflags.  After being at the park for a while we just took the trolley over to the hotel, had a late lunch (saved our large family lots of money), and took a swim.  After our cool down went back to the park and stayed till close.  This hotel made Hurricane Harbor great.  The hotel is directly across the street from Hurricane Harbor.  If we wanted to go back to our room we did not have to wait on the trolley to take us (just a short walk). Our boys loved seeing the small lizards, swimming in the pool, and playing basketball.Smoke free hotel. Bring your pets for only $100 (non-refundable).  We will bring ours next time.The only complaint I could come up with...  Only 1 bathroom for 2 bedrooms.  We made it work.More shade needed for swimming pool.We will definitely be back next summer!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Traveled with family (6 of us) to Sixflags over Texas and Sixflags Hurricane Harbor.  Stayed in 2 bedroom with 1 bathroom and full kitchen.  The breakfast buffet was excellent!  Having the social on Monday through Thursday evenings was a plus.  Saved money taking the trolley to Sixflags.  After being at the park for a while we just took the trolley over to the hotel, had a late lunch (saved our large family lots of money), and took a swim.  After our cool down went back to the park and stayed till close.  This hotel made Hurricane Harbor great.  The hotel is directly across the street from Hurricane Harbor.  If we wanted to go back to our room we did not have to wait on the trolley to take us (just a short walk). Our boys loved seeing the small lizards, swimming in the pool, and playing basketball.Smoke free hotel. Bring your pets for only $100 (non-refundable).  We will bring ours next time.The only complaint I could come up with...  Only 1 bathroom for 2 bedrooms.  We made it work.More shade needed for swimming pool.We will definitely be back next summer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r66449776-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>66449776</t>
+  </si>
+  <si>
+    <t>06/04/2010</t>
+  </si>
+  <si>
+    <t>It Was Just Ok for Us. We'll Choose Some Where Else Next Time.</t>
+  </si>
+  <si>
+    <t>We arrived Saturday May 29, 2010 around 12 pm. We drove from MO down to TX to visit family. It was a long 12 hour drive for us and we were seeking comfort at the time we arrived. It's hot and we wanted to clean up and rest a bit before seeing family. As we arrived the lady at the front desk was nice, but told us no check in was at 3pm. We were stumped as to what to do. Sit in the car until 3? It's hot!! We were so frustrated trying to find out what to do. We didn't want to meet up with anyone needing showers! After about 15 minutes of trying to decide on what to do, my husband decided to ask if they could do an early check in. Yes! They could! Thank you, it would have been nice to offer that when we arrived early!  I was just glad to be able to get into our room. They were all very nice but not really helpful. 
+The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it...We arrived Saturday May 29, 2010 around 12 pm. We drove from MO down to TX to visit family. It was a long 12 hour drive for us and we were seeking comfort at the time we arrived. It's hot and we wanted to clean up and rest a bit before seeing family. As we arrived the lady at the front desk was nice, but told us no check in was at 3pm. We were stumped as to what to do. Sit in the car until 3? It's hot!! We were so frustrated trying to find out what to do. We didn't want to meet up with anyone needing showers! After about 15 minutes of trying to decide on what to do, my husband decided to ask if they could do an early check in. Yes! They could! Thank you, it would have been nice to offer that when we arrived early!  I was just glad to be able to get into our room. They were all very nice but not really helpful. The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it work! The room service wasn't through. My daughter found earphones under the sheets. I found other items covered on our bed too. The bathroom had something on the toilet when we arrived. The Pool and Staff: The hotel has a nice pool. It's small but nice. My son, daughter and husband enjoyed the pool until my son swallowed water! Oops I'll save the details of what happens when people do that. The guests were very understanding, saying they had been there no problem. We went and told the front desk. They didn't care to come out and check. We got the mess out of the pool but we did expect someone to come out and look at it. Nope no one cared enough to do that. I can just imagine what else has happened in the pool then! The fact that they showed no interest was a turn off.The day we checked out a lady came to clean the room. We were putting our things in our car so the room was 90% clear of our items. I told her we were checking out and we were going to be out in about 10 minutes. The lady looked at me as though I insulted her. She said, "Check out today?" I said yes and smiled. She looked at me, turned up her face and said ok. I have no idea why she did that but that was my good bye from this hotel.Overall, it wasn't a horrible visit but we've been to better hotels for families. We will try some where else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived Saturday May 29, 2010 around 12 pm. We drove from MO down to TX to visit family. It was a long 12 hour drive for us and we were seeking comfort at the time we arrived. It's hot and we wanted to clean up and rest a bit before seeing family. As we arrived the lady at the front desk was nice, but told us no check in was at 3pm. We were stumped as to what to do. Sit in the car until 3? It's hot!! We were so frustrated trying to find out what to do. We didn't want to meet up with anyone needing showers! After about 15 minutes of trying to decide on what to do, my husband decided to ask if they could do an early check in. Yes! They could! Thank you, it would have been nice to offer that when we arrived early!  I was just glad to be able to get into our room. They were all very nice but not really helpful. 
+The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it...We arrived Saturday May 29, 2010 around 12 pm. We drove from MO down to TX to visit family. It was a long 12 hour drive for us and we were seeking comfort at the time we arrived. It's hot and we wanted to clean up and rest a bit before seeing family. As we arrived the lady at the front desk was nice, but told us no check in was at 3pm. We were stumped as to what to do. Sit in the car until 3? It's hot!! We were so frustrated trying to find out what to do. We didn't want to meet up with anyone needing showers! After about 15 minutes of trying to decide on what to do, my husband decided to ask if they could do an early check in. Yes! They could! Thank you, it would have been nice to offer that when we arrived early!  I was just glad to be able to get into our room. They were all very nice but not really helpful. The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it work! The room service wasn't through. My daughter found earphones under the sheets. I found other items covered on our bed too. The bathroom had something on the toilet when we arrived. The Pool and Staff: The hotel has a nice pool. It's small but nice. My son, daughter and husband enjoyed the pool until my son swallowed water! Oops I'll save the details of what happens when people do that. The guests were very understanding, saying they had been there no problem. We went and told the front desk. They didn't care to come out and check. We got the mess out of the pool but we did expect someone to come out and look at it. Nope no one cared enough to do that. I can just imagine what else has happened in the pool then! The fact that they showed no interest was a turn off.The day we checked out a lady came to clean the room. We were putting our things in our car so the room was 90% clear of our items. I told her we were checking out and we were going to be out in about 10 minutes. The lady looked at me as though I insulted her. She said, "Check out today?" I said yes and smiled. She looked at me, turned up her face and said ok. I have no idea why she did that but that was my good bye from this hotel.Overall, it wasn't a horrible visit but we've been to better hotels for families. We will try some where else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62961453-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>62961453</t>
+  </si>
+  <si>
+    <t>05/01/2010</t>
+  </si>
+  <si>
+    <t>Terrific staff, accomodating, clean and comfortable rooms</t>
+  </si>
+  <si>
+    <t>I stayed at Townplace suites for a recent business trip. The front desk person went out of her way to make dinner recommendations, and even print maps for us. The rooms and front lounge were clean, and comfortable. I would stay there again -the cost was reasonable -and the web access free - very easy and cost efficient for business in the area.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62916735-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>62916735</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>best customer service i ever had</t>
+  </si>
+  <si>
+    <t>my wife and i decided to go to a rangers game and wanted to stay close by and this hotel was in a perfect location for us. it was close to the ballpark. As soon as we walked in the door we were greeted by stephanie, she was very nice and helpful. if we had any questions she answered them. thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62703593-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>62703593</t>
+  </si>
+  <si>
+    <t>04/28/2010</t>
+  </si>
+  <si>
+    <t>Good Place to Work and to Have a Good Time</t>
+  </si>
+  <si>
+    <t>Lovely, Location is close to everywhere, really nice area.Top-notch service; very accommodating to all requests; went out of their way to be helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r47280149-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>47280149</t>
+  </si>
+  <si>
+    <t>10/19/2009</t>
+  </si>
+  <si>
+    <t>No major problems</t>
+  </si>
+  <si>
+    <t>I stayed here on business in October, 2009.  This was my first stay with a TownePlace Suites property.  My stay was fine; there were no problems.  At the same time, I don't think I'll stay here again on return trips to Arlington (where there are a ton of hotels with reasonable prices).  I did think the hotel was a bit worn around the edges -- for instance, some of the shutters on the outside of the hotel were either missing or loose.  The bedding was also a bit worn.  Otherwise, the property was fine -- my room was spacious (as you'd expect with an all-suites property), with a nice work desk (sometimes missing in suites places).  The hotel staff was fine -- not exemplary, but not rude.  Overall, I've definitely stayed in nicer all suites places (Residence Inn, Homewood Suites), but this one was adequate and is priced lower than those fancier properties.  The location is good if you have business in Arlington.  There are a couple of grocery stores nearby, which is great for when you have a kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I stayed here on business in October, 2009.  This was my first stay with a TownePlace Suites property.  My stay was fine; there were no problems.  At the same time, I don't think I'll stay here again on return trips to Arlington (where there are a ton of hotels with reasonable prices).  I did think the hotel was a bit worn around the edges -- for instance, some of the shutters on the outside of the hotel were either missing or loose.  The bedding was also a bit worn.  Otherwise, the property was fine -- my room was spacious (as you'd expect with an all-suites property), with a nice work desk (sometimes missing in suites places).  The hotel staff was fine -- not exemplary, but not rude.  Overall, I've definitely stayed in nicer all suites places (Residence Inn, Homewood Suites), but this one was adequate and is priced lower than those fancier properties.  The location is good if you have business in Arlington.  There are a couple of grocery stores nearby, which is great for when you have a kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r35258258-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>35258258</t>
+  </si>
+  <si>
+    <t>07/20/2009</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this past weekend. I was travelling with my children and we used the Queen sized bed and the children slept on the pull our bed.  The next morning as we were getting up, I found a bug by the bed. On it's own that is concerning however as I was going to call the front desk about it- discovered in between the night stand and the bed a pair of discarded ladies underwear from a previous guest.  I was appalled and disgusted. This clearly shows the room was not thoroughly cleaned prior to my check in. Once notified the onsite mainetnance manager was helpful and steam cleaned my room, I asked for the General manager to call me immediately. I have yet to receive a call from the General Manager to even offer an apology. I have registered a complaint with Marriott Corporate offices but currently do not plan to stay at this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this past weekend. I was travelling with my children and we used the Queen sized bed and the children slept on the pull our bed.  The next morning as we were getting up, I found a bug by the bed. On it's own that is concerning however as I was going to call the front desk about it- discovered in between the night stand and the bed a pair of discarded ladies underwear from a previous guest.  I was appalled and disgusted. This clearly shows the room was not thoroughly cleaned prior to my check in. Once notified the onsite mainetnance manager was helpful and steam cleaned my room, I asked for the General manager to call me immediately. I have yet to receive a call from the General Manager to even offer an apology. I have registered a complaint with Marriott Corporate offices but currently do not plan to stay at this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r19120752-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>19120752</t>
+  </si>
+  <si>
+    <t>08/19/2008</t>
+  </si>
+  <si>
+    <t>Close to attractions</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 nights.  Overall, the nicest feature is the proximity to the parks - Six Flags, Rangers baseball, and new Cowboys stadium (under construction).  The location was the primary reason for booking this hotel on a business/vacation trip.  Another plus was the full kitchen.  Bed was generally uncomfortable with poor feather pillows.  Walls between rooms are paper thin &amp; required us calling the front desk to quiet the guests next door.  Morning breakfasts are hot and above average, and the hotel also offers free food out in the lobby in the evenings (Mon-Thurs) with a changing theme.  Generally a good place to stay.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r6642908-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>6642908</t>
+  </si>
+  <si>
+    <t>01/21/2007</t>
+  </si>
+  <si>
+    <t>Great for families or business travelers</t>
+  </si>
+  <si>
+    <t>Stayed at Townsuites for three nights in mid-June 2006.  We are a family of four, so we had a two-bedroom suite.  Each bedroom had a double bed, dresser and television.  The beds were comfortable, with firm mattresses.  The living room sleeper-sofa converted to a double bed, so one of our kids chose the living room as his "bedroom," since it had a TV, VCR/DVD, and he was close to the kitchen.
+The kitchen is very small--reminiscent of a small apartment kitchen--but it is a full kitchen, equipped with cofee pot, dishes, flatware, glasses, cups, pots, pans, dish towels---anything you need if you want to prepare your own meals.   
+The bathroom was very small (again, think small apartment,) but with the tub and toilet separated from the vanity with a door, it was workable with four people.  
+Breakfast is complimentary, and there was a variety of food and plenty of it.  Everything from fruit, cereal (hot and cold,) bagels,.... You could even make your own waffles.  
+Staff was very friendly and welcoming.  The lady checking us in told us about Happy Hour and what they were serving each day. 
+We didn't swim in the pool, but the area looked clean and well-kept.  
+The location is perfect if you are planning to go to Six Flaggs or the waterpark, since the waterpark is directly across the street from the hotel.  
+If you're looking for the "spa experience" of a resort, this is...Stayed at Townsuites for three nights in mid-June 2006.  We are a family of four, so we had a two-bedroom suite.  Each bedroom had a double bed, dresser and television.  The beds were comfortable, with firm mattresses.  The living room sleeper-sofa converted to a double bed, so one of our kids chose the living room as his "bedroom," since it had a TV, VCR/DVD, and he was close to the kitchen.The kitchen is very small--reminiscent of a small apartment kitchen--but it is a full kitchen, equipped with cofee pot, dishes, flatware, glasses, cups, pots, pans, dish towels---anything you need if you want to prepare your own meals.   The bathroom was very small (again, think small apartment,) but with the tub and toilet separated from the vanity with a door, it was workable with four people.  Breakfast is complimentary, and there was a variety of food and plenty of it.  Everything from fruit, cereal (hot and cold,) bagels,.... You could even make your own waffles.  Staff was very friendly and welcoming.  The lady checking us in told us about Happy Hour and what they were serving each day. We didn't swim in the pool, but the area looked clean and well-kept.  The location is perfect if you are planning to go to Six Flaggs or the waterpark, since the waterpark is directly across the street from the hotel.  If you're looking for the "spa experience" of a resort, this is not your place.  It's perfect for families, or for anyone who needs to stay for an extended period of time.  I would definitely stay here again if traveling with my family and needed the room!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>Stayed at Townsuites for three nights in mid-June 2006.  We are a family of four, so we had a two-bedroom suite.  Each bedroom had a double bed, dresser and television.  The beds were comfortable, with firm mattresses.  The living room sleeper-sofa converted to a double bed, so one of our kids chose the living room as his "bedroom," since it had a TV, VCR/DVD, and he was close to the kitchen.
+The kitchen is very small--reminiscent of a small apartment kitchen--but it is a full kitchen, equipped with cofee pot, dishes, flatware, glasses, cups, pots, pans, dish towels---anything you need if you want to prepare your own meals.   
+The bathroom was very small (again, think small apartment,) but with the tub and toilet separated from the vanity with a door, it was workable with four people.  
+Breakfast is complimentary, and there was a variety of food and plenty of it.  Everything from fruit, cereal (hot and cold,) bagels,.... You could even make your own waffles.  
+Staff was very friendly and welcoming.  The lady checking us in told us about Happy Hour and what they were serving each day. 
+We didn't swim in the pool, but the area looked clean and well-kept.  
+The location is perfect if you are planning to go to Six Flaggs or the waterpark, since the waterpark is directly across the street from the hotel.  
+If you're looking for the "spa experience" of a resort, this is...Stayed at Townsuites for three nights in mid-June 2006.  We are a family of four, so we had a two-bedroom suite.  Each bedroom had a double bed, dresser and television.  The beds were comfortable, with firm mattresses.  The living room sleeper-sofa converted to a double bed, so one of our kids chose the living room as his "bedroom," since it had a TV, VCR/DVD, and he was close to the kitchen.The kitchen is very small--reminiscent of a small apartment kitchen--but it is a full kitchen, equipped with cofee pot, dishes, flatware, glasses, cups, pots, pans, dish towels---anything you need if you want to prepare your own meals.   The bathroom was very small (again, think small apartment,) but with the tub and toilet separated from the vanity with a door, it was workable with four people.  Breakfast is complimentary, and there was a variety of food and plenty of it.  Everything from fruit, cereal (hot and cold,) bagels,.... You could even make your own waffles.  Staff was very friendly and welcoming.  The lady checking us in told us about Happy Hour and what they were serving each day. We didn't swim in the pool, but the area looked clean and well-kept.  The location is perfect if you are planning to go to Six Flaggs or the waterpark, since the waterpark is directly across the street from the hotel.  If you're looking for the "spa experience" of a resort, this is not your place.  It's perfect for families, or for anyone who needs to stay for an extended period of time.  I would definitely stay here again if traveling with my family and needed the room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r5407165-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>5407165</t>
+  </si>
+  <si>
+    <t>06/27/2006</t>
+  </si>
+  <si>
+    <t>Very Nice.  I would recommend .</t>
+  </si>
+  <si>
+    <t>My wife and I, plus our 4 kids stayed here for a week in June 2006. We did the standard Six Flags / Hurricane Harbor.  The hotel is nice, quiet, and has everything you need. We stayed in a 2 bedroom suite, with living room with fold out couch. It was clean, quaint, and very nice. Kitchen was fully stocked. Much more like an apartment than a hotel.I was overall very pleased with the hotel, and recommend it. We will stay here again when we return. Other highlights of our trip, dinner at Pappadeaux (very good) right by 6 Flags, and Texas De Brazil (outstanding!) in downtown Ft Worth. Check both out.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I, plus our 4 kids stayed here for a week in June 2006. We did the standard Six Flags / Hurricane Harbor.  The hotel is nice, quiet, and has everything you need. We stayed in a 2 bedroom suite, with living room with fold out couch. It was clean, quaint, and very nice. Kitchen was fully stocked. Much more like an apartment than a hotel.I was overall very pleased with the hotel, and recommend it. We will stay here again when we return. Other highlights of our trip, dinner at Pappadeaux (very good) right by 6 Flags, and Texas De Brazil (outstanding!) in downtown Ft Worth. Check both out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r5406392-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>5406392</t>
+  </si>
+  <si>
+    <t>What a Trip!!!!</t>
+  </si>
+  <si>
+    <t>What a nice place for a family to stay. The rooms were nice and the pool was just outside our door which was a big deal for our 10 year old!. The trolley that runs to the Six Flags park and Hurricane Harbor was wonderful. The rooms were clean and the beds comfortable. After this experience I think a standard hotel room will always come up short. We will definitely stay here again when we return next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r3169336-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>3169336</t>
+  </si>
+  <si>
+    <t>02/07/2005</t>
+  </si>
+  <si>
+    <t>Extreme Renovations but all suites complete</t>
+  </si>
+  <si>
+    <t>I was a little leary at first due to construction, but I was pleasantly surprised by their accomidations.  They have just finished renovations of all their guest rooms.  New beds which were very comfortable with feather pillows, pull out sofas in each room.  All room have kitchens and free highspeed internet.  They are directly across the street from Huricane Harbor, and less than 1 mile form the ballpark and sixflags.  Spoke to the manager about the new addition to the hotel and was informed it was a guest house where the would be offering a hot breakfast, light  turn dinner buffet on Monday, Tuesday and Thursday and a full hot dinner on Wednesdays.  He also stated they will have a little market place which will have for sale different item so guest would not have to run to the store.  The Staff was very professional and polite.They are adding a sports court for family fun and even had a heated outdoor pool and barbaques for their guest to cook.  It was a pleasant experience and I will return later on this year with my family for a weekend of fun at sixflags.  They price was great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little leary at first due to construction, but I was pleasantly surprised by their accomidations.  They have just finished renovations of all their guest rooms.  New beds which were very comfortable with feather pillows, pull out sofas in each room.  All room have kitchens and free highspeed internet.  They are directly across the street from Huricane Harbor, and less than 1 mile form the ballpark and sixflags.  Spoke to the manager about the new addition to the hotel and was informed it was a guest house where the would be offering a hot breakfast, light  turn dinner buffet on Monday, Tuesday and Thursday and a full hot dinner on Wednesdays.  He also stated they will have a little market place which will have for sale different item so guest would not have to run to the store.  The Staff was very professional and polite.They are adding a sports court for family fun and even had a heated outdoor pool and barbaques for their guest to cook.  It was a pleasant experience and I will return later on this year with my family for a weekend of fun at sixflags.  They price was great too.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2011,4046 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>188</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>251</v>
+      </c>
+      <c r="X29" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>210</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>151</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>330</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>334</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>352</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>353</v>
+      </c>
+      <c r="J45" t="s">
+        <v>354</v>
+      </c>
+      <c r="K45" t="s">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s">
+        <v>356</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>357</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>359</v>
+      </c>
+      <c r="J46" t="s">
+        <v>360</v>
+      </c>
+      <c r="K46" t="s">
+        <v>361</v>
+      </c>
+      <c r="L46" t="s">
+        <v>362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>363</v>
+      </c>
+      <c r="O46" t="s">
+        <v>132</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>366</v>
+      </c>
+      <c r="J47" t="s">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>370</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>371</v>
+      </c>
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s">
+        <v>373</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>374</v>
+      </c>
+      <c r="O48" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>376</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>377</v>
+      </c>
+      <c r="J49" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" t="s">
+        <v>379</v>
+      </c>
+      <c r="L49" t="s">
+        <v>380</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>381</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>398</v>
+      </c>
+      <c r="J52" t="s">
+        <v>399</v>
+      </c>
+      <c r="K52" t="s">
+        <v>400</v>
+      </c>
+      <c r="L52" t="s">
+        <v>401</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>402</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>404</v>
+      </c>
+      <c r="J53" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" t="s">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s">
+        <v>407</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>408</v>
+      </c>
+      <c r="O53" t="s">
+        <v>132</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>427</v>
+      </c>
+      <c r="O56" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>428</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>429</v>
+      </c>
+      <c r="J57" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" t="s">
+        <v>431</v>
+      </c>
+      <c r="L57" t="s">
+        <v>432</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>434</v>
+      </c>
+      <c r="J58" t="s">
+        <v>435</v>
+      </c>
+      <c r="K58" t="s">
+        <v>436</v>
+      </c>
+      <c r="L58" t="s">
+        <v>437</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>438</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>439</v>
+      </c>
+      <c r="J59" t="s">
+        <v>440</v>
+      </c>
+      <c r="K59" t="s">
+        <v>441</v>
+      </c>
+      <c r="L59" t="s">
+        <v>442</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>443</v>
+      </c>
+      <c r="O59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J60" t="s">
+        <v>447</v>
+      </c>
+      <c r="K60" t="s">
+        <v>448</v>
+      </c>
+      <c r="L60" t="s">
+        <v>449</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>450</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>452</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>453</v>
+      </c>
+      <c r="J61" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" t="s">
+        <v>455</v>
+      </c>
+      <c r="L61" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>458</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>459</v>
+      </c>
+      <c r="J62" t="s">
+        <v>460</v>
+      </c>
+      <c r="K62" t="s">
+        <v>461</v>
+      </c>
+      <c r="L62" t="s">
+        <v>462</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" t="s">
+        <v>467</v>
+      </c>
+      <c r="K63" t="s">
+        <v>468</v>
+      </c>
+      <c r="L63" t="s">
+        <v>469</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s">
+        <v>473</v>
+      </c>
+      <c r="L64" t="s">
+        <v>474</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37261</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>475</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>476</v>
+      </c>
+      <c r="J65" t="s">
+        <v>477</v>
+      </c>
+      <c r="K65" t="s">
+        <v>478</v>
+      </c>
+      <c r="L65" t="s">
+        <v>479</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_757.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_757.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>CKing2012</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed for the Cotton Bowl to root for Ohio State and the location was great.  With 3 teenagers, 2 bedrooms is a must and this did not disappoint - plenty of room.  Beds were very comfy, including the sofa bed. Staff was great at check-in and check-out. Lots of restaurants nearby. There is even a basketball court on the property. Only downsides were runny eggs at breakfast, clock not set to right time (I couldn't figure it out) and carpeting needs replacing (carpet in the hallway had a very musty odor). Otherwise, good stay.More</t>
   </si>
   <si>
+    <t>I_of_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r549621901-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Traveled to the area for the State High School Football Championship and wanted a place near AT&amp;T stadium to stay.  With a couple of older kids now, space to spread out is very important for me.  We stayed in a two room suite (i.e. two separate bedrooms, each with a queen bed).  In addition, the sofa in the living space also opened into its own bed.  The beds were decently comfortable and we were able to sleep pretty well after returning from the game.Free parking was available in front and back lots and the walk to my room from either lot was pretty short.The full kitchen was very useful as we like to bring food and drinks with us on road trips.  A full size refrigerator served us well.Our room faced out the front of the hotel onto Lamar Blvd, but despite being a high traffic road, I had no issues with noise.The breakfast area was small, but had a decent mix of hot and cold options and everything I ate tasted good.Overall, I found this a great place to stay with easy access to the sport and entertainment places there in Arlington.More</t>
   </si>
   <si>
+    <t>joanna2144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r540033543-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>If you're in town for a Cowboys game, this hotel is a perfect place to stay.  Walkable to AT&amp;T Stadium (also Global Life Stadium, Six Flags Over Texas and Hurricane Harbor), it makes attending a Cowboys game very easy.  It's about a 30 minute walk to enter the stadium, but that includes crossing busy crosswalks and maneuvering through the crowds of fans. This is a much better option than paying $50 to $70 to park, in bumper to bumper traffic.  The walk is very safe and pretty much a straight shot once you get on Baird Farm Rd, which turns into AT&amp;T Way once you cross over I30.The rooms are very nice, and include a small kitchen, couch and and tray tables to eat on.  The hotel is clean and included a hot breakfast.  The staff was very friendly and accommodating.  I was offered a shuttle ride from the hotel to the stadium for $20, so that might be a good option for people who do not want to walk.More</t>
   </si>
   <si>
+    <t>timchadrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r509627751-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Diedre C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r507419100-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>The staff is super nice, but they don't actually fix issues. We checked in on July 4 and the pullout couch was soaking wet and stunk like urine. We were able to switch rooms across the other side of the property. The staff didn't ask to help us load up any of of stuff to make the switch over to the other room. It took three trips to get everything moved over. Mind you, we have two kids and a cat in tow. Then the AC doesn't work very well in the new room. I called the front desk and he told me that the maintenance staff had left and he would put a work order in for the next day. That never happened. Again, the staff is really nice, they just don't actually work to make their customers happy or taken care of. I had to call back for 5 days straight to be able to talk to Rachel who said she was going to look into the situation and figure it out and call me right back. She never called me back, instead I had to finally call every hour on the hour to get to speak to her and have her handle the issue. We will never stay in this hotel again. It was beyond disgusting. Don't waste your money there. The holiday inn was much nicer!More</t>
   </si>
   <si>
+    <t>SK24theroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r490505629-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>We really can't tell you a thing about this hotel for the following reason. We booked the hotel ahead of time and even called them a day ahead to make sure the front desk could check us in at around 10 P.M. We were assured the room would be waiting for us. Guess what!!!!! Hotel was overbooked and we were told that they shifted us to another hotel.  The desk person was positive and friendly but that didn't get us our room! Tired from our trip to Dallas, we loaded back up and drove to Spring Hill suites. People without a car would have to recall a taxi. Guess what!!! TownePlace Suites never contacted them ahead of time about booking us a room and they had no room left either. However the two people working the desk at SpringHill called up their manager and after a ten minute conversation were able to manipulate it somehow so we didn't have to sleep out in the parking lot. ,More</t>
   </si>
   <si>
+    <t>Ladyxxmacbeth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r475681458-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>We have stayed here for two weeks whilst holidaying in the USA. The service has been excellent, from the front desk to the maid service everyone is so friendly and attentive. The hotel itself is in a quad set up with rooms around a square courtyard that has the outside areas and pool. We stayed in a room with two bedrooms, a kitchenette and living area. It was at the back of the hotel and it was nice not having to walk through the lobby every time you went to your room. The room was perfect for our needs. Very clean and plenty of towels and toiletries. We didn't get the room cleaned daily as we really didn't think we needed it. They restocked and cleaned the bedding after the first week and we were very pleased with the maid service. The breakfast is WOW! The little sausages are heaven. Maybe it's because we are from the UK where the food is a bit bland but the breakfast for us was fabulous. Texas shaped waffles? Yes please! Fruit, muffins, oatmeal, waffles, chocolate milk, coffee, tea, toast, bagels. I've never seen such a selection. don't listen to the bad reviews we thought this hotel was fantastic. The staff went out of their way to make our stay great. Thanks to the guy who printed off our Rangers tickets for us.More</t>
   </si>
   <si>
+    <t>Bill W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r473844912-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Jericha  (I apologize if I got that wrong)what a lovely young lady.  She was very pleasant, helpful and engaging.She asked a few questions, found out we were going to Six Flags and told us about the trolley service and gave is some passes.  This employee goes above and beyond in customer service.  Make her a trainer.2 bedroom 1 bath was perfect, clean and priced well. 230 a night, I believe. TIP Six Flags  by trolley 30 min before park opens, every 30 min for the first hour and then a few more times and return trips every 2 hours or so.We took UBER Back to hotel, 9 bucks!!!</t>
   </si>
   <si>
+    <t>Aron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r462018107-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>Room was clean and comfortable. I would stay here again for sure. Staff not as helpful but still a great stay. The pillows were very soft and fluffy!  Sitting area was nice. Plenty of extra bedding to accommodate the sleeper sofa that wasn't bad for a sleeper sofa!More</t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r449604081-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>We stayed for five nights around Christmas.  The hotel was clean and service was nice.  I was a bit bummed they didn't have their social hour (free dinner) the few days after Christmas but understand they were probably giving the staff a break.  Breakfast morning was just cold food.  Again, bummed but understanding.  We had a two bedroom suite which had enough room for four of us.  Didn't seemed vacuumed when we got there but left a note and a tip for the housekeeping and it was great when we got back that day.  Played on the basketball court one night.  Front desk had a basketball for us to use.  Didn't use the pool.  One day it was super windy and got filled with leaves.  It was clean the next day.  Used the laundry which was costly at $2.00 a load.  The front desk was out of quarters for the weekend.  More planning ahead so this wouldn't happen would be nice.  Had to run to a gas station to get quarters.  Hotel is super close to AT&amp;T stadium which I recommend walking to instead of paying to park closer.  About 1.5 miles walk and all sidewalks. We walked for a Monday night game.  Lots of people walked back with us. Waterpark right across the street which was closed when we were there.Drove to Six Flags which is also close.More</t>
   </si>
   <si>
+    <t>utting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r449031416-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other...We stayed here four nights while in town for the Cotton Bowl.  We chose the hotel for its two bedroom suite as well as its proximity to AT&amp;T Stadium.  It is an easy walk that takes about 15-20 minutes.  While the rooms and hotel were clean, the beds were extremely noisy.  Lots of creaks and squeeks with every move you made.  We were also disappointed with the "complimentary breakfast".   On New Years Day, only a "cold" breakfast of cereal and warm juice was offered.  There was slices of bread, but no toaster.  This was especially disappointing as our rate was increased by nearly $100 per night on this day.  We were not the only guests disappointed with the lack of options on a holiday morning when the hotel was very full due to the big game in town. A warm breakfast was offered on the other days, but it fails in comparison to other stays we have had at similar Marriott hotels.  Additionally, on one day of our stay, we were out of the room from 8:30 in the morning until 4:30.  We returned to a room that had not yet seen maid service.  No clean towels and beds still unkempt.  The maid showed up after 5:00 p.m. asking to clean our room to which we declined because we were all tired and just wanted to relax in our room.  If we visit Dallas again, we will look at other options.  This Marriott did not come close to meeting our expectations.More</t>
   </si>
   <si>
+    <t>Monte K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r445918551-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>I stayed at this hotel on the night of December 14, 2016 in room 308.  I had reservations to stay for three nights, but checked out early because this is, without a doubt, the worst hotel in which I have ever stayed.  Let me say that the employees at the front desk were very friendly -- I have no complaints about them.   I cannot begin to explain how bad the bed was!!  Every time I moved in the bed it made loud "popping" noises.  I did not sleep at all that night.  I do not want to sound like I am one of those "constant complainers."  I am not.  I did not even complain to the front desk.  I just packed my bags and left.  I am truly surprised that Marriott has their brand on this place.  I would challenge anyone from Marriott to stay in room 308 for even one night!!!More</t>
   </si>
   <si>
+    <t>heartles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r436172178-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>Stayed here for two nights during the first weekend of October to see the last regular season (2) games of the Rangers.The weather was beautiful!Upon arrival, the front desk person was so friendly and so nice to my kid.  She was really sweet and helpful because we were in a rush to get to the game.She informed us of the free (to hotel guests) trolley to the ballpark and it was crowded but nice to have the option to and from.  We actually walked home after the day game and it's not far but it's not super close.  However, we really enjoyed the walk and there was sidewalks available so no treacherous traversing.Parking was super easy and not crowded.  Rooms were clean .. kitchen is always awesome to have.  Went to this really yummy old school Italian restaurant one night, Piccolo Mondo, which is right next to Whole Foods .. both are super close to the hotel.  Pool was fun for the kid; I don't know if it was heated or not .. but he was fine for a little while to get that energy out.We are touring the U.S. of ballparks so I don't know when I will get back to this particular hotel, but I have stayed and love staying at TownePlace when they are near the ballpark we are traveling to!More</t>
   </si>
   <si>
+    <t>Pete B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r408930050-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -483,6 +525,9 @@
     <t>First impressions last, and unfortunately my first impression was not good.The receptionist barely offered us a greeting and appeared not to show any interest in us.On top of this, she could not find our reservation number despite it being made through Marriott. Nor could she find it with our name.We were handed the keys to our room with no guidance as to the direction of the room.Our room had an unclean feel to it and the bed was noisy.More</t>
   </si>
   <si>
+    <t>Sully350</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r397658785-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -508,6 +553,9 @@
   </si>
   <si>
     <t>This is not our first visit.  Room was very nice and breakfast was average.  I am giving it an average rating.  The reason is that they dropped the ball on fixing the phone...(I still believe in security).  Said the closet door would be fixed.  It was propped up against the frame very loosely.  Went to ballgame and not a darn thing completed.  I told the morning desk clerk about the issue again!  Good luck to the next people inhabiting the room!More</t>
+  </si>
+  <si>
+    <t>Irina G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r385383623-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -539,6 +587,9 @@
 The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which...We stayed at TownePlace Suites on a visit to Dallas/Arlington to see a Rangers game and view the town with our two teenage children. We rented a 2 bedroom suite.The Good: Great location for what we were in town to do. The room was clean, neat, and we were pleasantly impressed with the amenities. Full size kitchen area, sitting area, and two bedrooms.  Front desk staff was polite and helpful. Temperature control of the room was on point... we didn't realize how HOT Dallas was and it was nice to have a room that got below 65 when we wanted it. The cleaning staff was courteous and attentive... and thought we tried to reuse towels by hanging them up on things as requested we always received fresh new towels daily. The hotel has breakfast daily and when we arrived we were also informed that they serve a light dinner/snack Mon-Wed with beer and wine included! The one morning where we actually made it to breakfast I was pleased by the eggs, sausage, homefry, and waffle options... plus they had cereal, oatmeal, and various bread choices along with hard boiled eggs and sliced cheese. And of course Coffee and Juices. The food was replenished frequently which was nice too. For a free breakfast this was certainly above par. My husband and I slept in one room, my son in another, and my daughter slept on the pull out sofa... which because she's short she didn't even pull out but said was very comfortable non the less.The Medium: Linen quality and towel quality is pretty low. Wasn't expecting higher given the type of establishment this was but just FYI. Also, I wish that the had the two bedroom option available with a king bed in the "main" room. There is certainly room for it and would be a nice option. The room has one bathroom and only one sink which is slightly small for a 2 bedroom but wasn't really an issue.The Bad: The beds squeak very loudly and you could barely get in or out of bed without waking everyone in the room. They weren't uncomfortable but could certainly use a pillow top option. Also, the complimentary snack in the evening though a great option was poorly managed compared to breakfast. We went down at 5:10 for service that started at 5 and all the food was gone. We were told that more would be put out soon but by 5:45 we got tired of waiting for the fajitas to be brought out. There was beer and wine which was nice, some chocolate cake my kids said was very good, and there was a salad "bar" which was fresh and was full until about 5:30 when people started eating that since everything else was gone. I'm not sure when/if they refilled the food. The second night was hot dogs and beans. Not a favorite so we skipped that but while standing there deciding what to do for dinner we again saw the food run out and not be replaced for a good 15 minutes... and which time we left.All in all I thought for the price this was a great hotel and I would absolutely stay here again.More</t>
   </si>
   <si>
+    <t>Gail D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r369511602-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -566,6 +617,9 @@
     <t>We stay at this hotel every time we visit our daughter. Kiandre and Raequel are wonderful. They always greet us with a smile and they remember that we are regulars. The rooms are clean and the cleaning staff does a nice job daily. The breakfast is good. Good variety of food. We will always choose this hotel when we are in Arlington.More</t>
   </si>
   <si>
+    <t>Ronald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r363481174-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -587,6 +641,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Denae G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r360729922-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -605,6 +662,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>SusanC21214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r359158592-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -620,6 +680,9 @@
     <t>Nice rooms with pull out sofa and kitchenette.  Great front desk staff and good breakfast.  All in all it was very good and got a great price last minute.  Wood stay here again!  Only thing I can say negative is that we did have a pack of kids above us and that woke us up at 6:00 am, but that is part of spring break.  I would suggest a top floor room.</t>
   </si>
   <si>
+    <t>Toomika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r355803983-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -635,6 +698,9 @@
     <t>Loved it staff was helpful and very nice would stay here again keep up the great work rooms were very clean and comfortable rooms had a full kitchen  close to stadium and six flags even had a kickback on Thursday night I can't say enough about this hotel we will be back</t>
   </si>
   <si>
+    <t>NerdyGirl08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r343888855-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -656,6 +722,9 @@
     <t>I unexpectedly ended up having to find a hotel after my family's flight was diverted to another airport due to weather.  Since it was almost midnight and severe thunderstorm was in the area, most hotels around DFW did not have any vacancies.  I ended up finding out that there was 1 room left at this hotel, which I was extremely thankful for.  Upon my arrival (due to everything that took place that day and the fact that my grandmother's funeral was in 9 hours), I ended up sobbing at the front desk unexpectedly.  I usually never cry in front of anyone, so this was rather embarrassing.  The lady at the front desk was so nice, offered me some tissues and gave me hug.  I really appreciated that.  The room was the Towneplace standard.  It was clean &amp; comfortable.  The lobby and breakfast area were pretty modern and decently appointed.  The breakfast selection was acceptable. I was able to make a breakfast sandwich to take with me in the morning.  Overall, I was satisfied with this hotel &amp; the staff was amazing.  Treated me like family.More</t>
   </si>
   <si>
+    <t>lindab6318</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r337410764-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -677,6 +746,9 @@
     <t>This hotel exceeded my expectations.  Everyone I talked to told me the hotels around the stadium were not very nice.  This hotel is across the street from Hurricane Harbor, and very close to Six Flags.  We can see AT&amp;T Stadium (COWBOYS) and Globe Life Stadium (Rangers) also.  We actually walked from the stadium!!!  It took about 30 minutes and is about one and a half miles away,  We had a two bedroom suite.  The rooms are nice.  There is a tv in each room and out in the common area.  Closet space is plentiful.  Breakfast was a pleasant surprise.  We had breakfast burritos one day and make your own waffles everyday.  There is a heated outdoor pool, barbecue area and a small gym.  Although we didn't take advantage of these amenities, it's nice to know they are there.  We plan to come back to AT&amp;T stadium and will probably stay here again!More</t>
   </si>
   <si>
+    <t>FedAgent1896</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r333121311-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -704,6 +776,9 @@
     <t>Was in town doing some training and stayed for 6 nights. The staff was very friendly and very helpful. Everyone seemed to have a smile on their face and they looked really cute dressed up like reindeer.The outside of the property looked great and appeared to be well maintained. The pool looked clean, minus the leaves (but it is December), and the grill area and basketball court were in good condition.Inside the buildings though you can see the age of the property. It just had an older feel to it, older carpet, older paint...it just showed its age. The room wasn't terribly big for a "suite", I felt kinda cramped but it was decorated in a very modern style with granite counters and contemporary furnishings. The bed was not the best, it was really firm and I didn't sleep terribly well. There was ALOT of noise coming from the hallways and really seemed like I had the door open it was so loud. The walls must be pretty thin.Breakfast in the morning was just okay I guess. It was the standard pre-made heat and eat eggs, potatoes and such. Nothing spectacular but not terrible.I am looking at switching over from HiltonHonors to Marriott Rewards and was trying this place out. My next stop is a Residence Inn in Oklahoma City, I'm hoping they do a better job of convincing me to switch.More</t>
   </si>
   <si>
+    <t>Nate R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r328820400-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -722,6 +797,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Worldwidelunas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r325482847-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -740,6 +818,9 @@
     <t>We booked through jetsetter and all seemed fine until we received a message from the hotel approximately 1 week before our stay.  Apparently a large group extended their stay through the end of November which bumped my part and about 30 others out of the hotel.  We were moved to a hotel about 15 miles away which was obviously inconvenient as we were there for a Cowboys game and purposely chose a close hotel so we wouldn't have to choose between drinking and driving.  Our choice was take the other hotel or find a new one (one week before the game which would have been impossible) They did comp our stay at the other hotel, but there was no compensation offered if we chose to look for another hotel on our own.  In all, I'm pretty surprised this happened.More</t>
   </si>
   <si>
+    <t>Damian H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r319915203-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -758,6 +839,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>sandybrown1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r306635775-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -782,6 +866,9 @@
     <t>I love TownePlace Suites and this one is no different.  Great breakfast, great large room, friendly staff, great location.  Near Cowboy Stadium but the traffic can be overwhelming near the hotel.  Will be staying there again!  More</t>
   </si>
   <si>
+    <t>stacey f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r293536305-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -809,6 +896,9 @@
     <t>Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel...Stayed here to take my daughter to the Dallas Cowboys cheerleading academy and this hotel was located right around the corner from the stadium. (Very convenient!) there's a lot close by including a Walmart and gas stations. Vaneisha (hoping I spelled that correctly) was amazing!! Very helpful (and we share a love of black diamonds) the breakfast area was a little cramped but was a decent breakfast (fun Texas shaped waffles but would have liked to have had bacon) they had a snack time a few days out of the week and that was a nice added bonus. Loved getting tacos on Tuesday and on Wednesday we had hot dogs. The next night we weren't there during that time but when we got back there was pop corn! Marriott does need to get it together and make it easier to pull up rewards member info as well as change the rate if needed (in our case I booked one rate, and found it could have been cheaper doing the military rate, but didn't seem to be an easy task to change the rate once it's in the system) that was something that seemed to completely be on the company and not the hotel itself. The room was nice but our coffee supplies weren't replenished, thankfully there was coffee in the lobby available all day. The towels and toiletries were replaced at least.  You can see six flags from this hotel and its across the street from the water park that's affiliated with six flags, hurricane harbor so you can save $ on parking by walking. If you wanted to you could also walk to the stadium, I'm not certain there's a way to walk to six flags, but it is potentially possible. The only thing lacking in the kitchen was an oven. But we survived without one. Having the kitchen saves a lot on food so you don't have to eat out. If we return next year, it's likely we will stay at this location again. The price can't be beat for the area as well as the value. Clean room, friendly staff (for the most part) and you even get food twice a day during part of the week! More</t>
   </si>
   <si>
+    <t>Kim D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r281920374-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -827,6 +917,9 @@
     <t>We found this hotel to be near local attractions that we had planned to visit.  The continental breakfast was adequate to start the day.  The rooms were clean, cool and comfortable (pillows were not great).  The staff was friendly, however, we did not rent a car and the hotel staff was not very knowledgeable in public transportation options in their area.  Free trolley service is excellent for attending local attractions but operates only on a limited schedule.  We did a lot of walking to find restaurants in the area.  If you have a car it would be a great place to stay.More</t>
   </si>
   <si>
+    <t>Stephen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r244803129-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -845,6 +938,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Jesse D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r232142582-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -872,6 +968,9 @@
     <t>We stayed here on a Saturday for an overnight so I could see a Texas Rangers Baseball game.to see a baseball game.  The plus side for this property is that they are a drop point for the shuttle to and from the ballpark.  On a 100 degree day/night, the pool was dirty and looked as though it had not been cleaned in days.  In Texas, that is not good.  At 6:00PM they closed the pool.  The elevator in our building broke mid afternoon and they said it would not be fixed until Tuesday at the earliest; Labor Day Weekend and all.  So much for ADA.  On our walk down the hall way on the first floor to climb the stairs to the third floor where our room was there was a large wet spot in the corridor from a pipe leak in a room that no one appeared to care about.What really annoyed me was the staff and the lack of care or customer service.  My wife and I love Marriott because of the level of service they provide and they consistently deliver a fine product.  Not here. If you like Marriott, there is a Springhill Suites or a Courtyard near by.  Otherwise, Hiton, Sheraton, Days Inn....they are all there.More</t>
   </si>
   <si>
+    <t>Alamotraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r232068245-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -887,6 +986,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>OklahomaSoonergrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r216236940-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1007,9 @@
     <t>Spent two nights here on a trip with my daughter.  Our room was clean and had everything we needed.  The staff was friendly and polite from the front desk clerk, the manager, and even the housekeepers.  We felt safe and loved the location.  We didn't have to drive to Hurricane Harbor because it really is just across the street!  During breakfast I noticed the food was fresh and they kept putting food out for us late risers.  The manager went around and made sure everyone was having a good stay and made the comment that she loves her job.  The pool and grounds were well maintained as well.  We will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Ann G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r214468994-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1029,9 @@
   </si>
   <si>
     <t>Our family of 5 adults and 4 children,ages 1-15, were here June 27-30, 2014. We had two, two bedroom suites that were next to each other and perfect accommodations for our family reunion.  I was concerned after reading reviews but should not have been.  Beds were very comfortable, rooms in excellent condition, breakfast was good and enjoyed by all ages.  Having a full size kitchen was a plus with the children. Pool and basketball court were enjoyed by all. Josie and Tonya and the entire staff were so friendly and went out of their way to make our trip comfortable. If in the area again we will definitely stay there.  Wonderful experience and highly recommend.More</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r207432190-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -969,6 +1077,9 @@
 I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we...Positive:  responsive, hard-working evening desk agentNegative: facility shows many signs of useLocated near major theme parks and athletic venues, and surrounded by a variety of restaurants, this hotel would seem to be an ideal place to stay. But the facility shows many signs of heavy use and multiple repairs. Overall, it suffers from outdated decor and design.We reserved a room for three nights over the Memorial Day weekend, hoping for a restful and relaxing holiday in the D/FW area. Alas, that's not how things turned out.Bumps, scrapes, dings, and more -Before describing some of the problems we observed, it's obvious management has attempted to affect repairs. In fact, contractors were reroofing and repairing the exterior during our stay, and the outside was slated for painting the following week.  Despite their efforts, opportunities for improvement abound. We wondered if repairs were being made on a piecemeal basis. If so, perhaps it's time for a wholesale cleaning and renovation.The room we were initially assigned contained a broken lamp and a grimy side chair marred by a large stain. The entire room smelled sweaty. During our brief time in that space we noticed occupants of the adjacent room weren't talking particularly loudly, but could heard plainly through the connecting door.I reported problems to the evening desk agent, who quickly moved us to another floor. Our second room smelled clean and was in better condition, so we decided to stay there. But it still showed signs of heavy use. For example, one of the bathroom towel racks was bent, kitchen flooring had a gash, and one sofa cushion had a zipper that wouldn't close. The other cushion was so compressed it was uncomfortable to sit upon.With exception of the lobby, which was bright and inviting, wear and tear was evident throughout public areas. Examples of hard use were everywhere. The frame around the elevator control panel was broken. Paint covered scars on some doors, but many were smudged. Door frames have been repainted, but several on the third floor weren't painted all the way to the floor. Ceiling tiles in the second floor hallway sagged.During our stay we began to think of the elevator as our own little thrill ride, like those at amusement parks across the street. It creaked, bumped, and groaned between floors, a lot like a roller coaster.We prefer a king-size bed,  but this hotel only offers queen beds. Consequently, suites are smaller than those at other TownePlace Suites we regularly visit. Rooms also lack cabinets and dressers provided in newer hotels. We stored dirty clothes inside nightstands, and pushed bags and other incidentals against walls to get them out of the way.While we consider quality of finishes a minor point, we did notice some materials used here were dated or were not the same as seen elsewhere. The bathroom was outfitted with oak veneer cabinets. The floor was covered with vinyl and the shower was sheathed with what appeared to be plastic slabs, not tile. However, we were surprised a separate exhaust fan was provided; it's amazing how many hotel bathrooms lack any kind of ventilation.Despite it's utilitarian appearance, the bath area was cleaned regularly (kudos to housekeeping) and certainly provided all required functionality. Best of all, the toilet, faucets and drains worked without a hitch! Our mattress was extremely hard and lumpy, and the wall-mounted air conditioning unit was difficult to control. Together, these two components made for unusually restless nights.  During most trips we acclimate to surroundings the first night and sleep well the remainder of a stay. This time we didn't sleep well any evening. Each morning my wife and I both awoke stiff and tired, with headaches and backaches.With two treadmills, an elliptical, and free weight bench, the exercise room was typical of other hotels we've visited. Televisions were attached to the treadmills, but the set on the treadmill I rode produced a static-filled picture on the few channels it received. I turned the set off after a few minutes.The weekend we visited, several youth sports teams were also at the hotel. Everyone was well-behaved and really didn't make a lot of noise, but they tended to monopolize public areas including the lobby, outdoor pool, and already tight parking lot. They also kept the staff busy with requests.Breakfast boondoggles -We weren't able to try breakfast. The first two mornings, the small eating area was so crowded we had no place to sit. Our final morning, Memorial Day, we arrived just after 9:00 a.m. to find a housekeeper putting food away. She offered waffles and summarily dismissed us as she continued to move items off the breakfast bar.  We honestly had looked extensively for serving hours in the lobby and our room and  found no mention anywhere. No signs were posted and nothing was listed in our room directory. In retrospect, we should have verified with the front desk. However, we really thought hours would be extended or shifted due to the holiday.As we left the dining area on day three, a family with young children arrived looking for food. We felt sorry for them. Perhaps they were allowed to make waffles...we don't know.A bit of good news -The Marriott brand enjoys a good reputation because of their high-quality facilities and commitment to customer service. The evening desk agent was the saving grace of our visit. She  was a rock star, responding to requests and trying hard to make up for situations we encountered. Friendly and professional, she resolved problems quickly in a satisfactory manner.Back to less pleasant experiences -Housekeepers were a different matter. We've always been impressed at the way staff members in other Marriott properties acknowledged us, often with a smile. Most housekeepers at this hotel were aloof. Many turned away when we approached.In fairness, I must report the last two housekeepers we saw did acknowledge us by smiling and nodding their heads. I think it was a coincidence we were carrying luggage out of the building at the time. Perhaps they wanted to provide a pleasant memory of our visit.In other hotels, employees that work the breakfast bar are often the most gregarious and attentive staff members. They often engage in conversation and are typically very responsive. Although we didn't eat breakfast during our stay, we did dodge crowds to pick up cartons of milk, and noticed the keeper of the breakfast bar lacked personality. The one time we spoke directly, we were dismissed with few words. Talking with patrons is probably not a requirement of that job, but it really enhances the customer experience.The Bottom Line -In many ways, our experience was a lot like a mound of pebbles. Individually, most problems we encountered were relatively insignificant. A scratch here, a wayward door there could easily be overlooked. Lumped together, these conditions became a significant pile that was difficult to deal with.If you're unfamiliar with the title of this review, "rode hard and put away wet" refers to a horse that's given maximum effort but is not properly cared for at the end of the day. In our opinion, this phrase describes TownePlace Suites-Arlington quite well.Across the years we've stayed at hotels with fewer amenities, but they were advertised as lower-level lodging. We expected less when reservations were made. We've also stayed at hotels that were in worse condition, but of course we didn't return to them.The past decade we've tried over a dozen Marriott properties in the Dallas area alone. A couple of months ago we visited the Fairfield Inn two miles east of this hotel, located at the opposite end of Lamar Boulevard. We found that hotel somewhat noisy due to it's proximity to I-20, but generally was a superior property.We've also stayed at the nearby Arlington SpringHill Suites, but that was several years ago. Given our experience then, we'd also choose it over this hotelPost-script -The final morning of our stay, a housekeeper tried repeatedly to enter our room about 7:15 a.m. It was a holiday, for goodness sake! We were still sleeping, not comfortably, but sleeping nonetheless. In many ways, this experience was a fitting end to a rather uncomfortable stay.More</t>
   </si>
   <si>
+    <t>Mandy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r202250583-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1098,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Dobeadoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r197138666-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1119,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>swwake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r194262459-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1140,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Janette W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r174721220-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1161,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r170218034-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1182,9 @@
     <t>Location is good for 6 flags or the Ball Park. They do not have King Beds at all. It is an older complex. Beds are average and seem more like doubles than Queens to me. Our shower leaked water every where flooded bathroom floor. A/C did not blow cold air. Night shift girl was excellent. Very accommodating did everything she could to move us to another room quickly. She was very professional.  Next morning Manager said she could not pull up our bill to adjust it for the inconvenience of changing rooms or help us in any way but would look at it later. Hmmm. What are the odds? The only thing I could give this a high rating would be the service we received from the young woman running the desk at night. More</t>
   </si>
   <si>
+    <t>StacW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r163581292-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1203,9 @@
     <t>Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons...Stayed 6 nights. Hotel offers daily breakfast which was the same daily with the exception of bacon or sausage. Would have enjoyed biscuits and gravy on the weekend. Hotel offers a dinner Monday-Wednesday. Front desk will advise dinner from 530p-7p but if your not there at 530p you should make other arrangements. A lot of young kids from foreign countries staying at hotel while working for Six Flags. Hotel has a sports court but the basketball hoop is broken, City of Arlington closed the pool on Friday and when I checked out on Monday it was still closed but was advised we could use the pool at the SpringHill Suites down the road. Hotel offers free washer and dryers for your laundry but it appears everyone likes to leave their laundry in either the washer or dryer and take hours to come  get it, and when I used the laundry area it was on the dirty side. Fitness room had weights and treadmill but felt like the A/C wasn't working. Cleaning staff was friendly and provided excellent service something the front desk staff should learn to provide. With the basketball court and pool not working the lobby looked like a daycare as the kids were hogging the business center playing games. I even asked the front desk to call when the computer was available which they never called. Rooms were clean but could have used better selection of mixing spoons and knives. Also room sleeps 4 but only plates, glasses and silverware for 3.More</t>
   </si>
   <si>
+    <t>wkh0409</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r161087122-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1221,9 @@
     <t>This is my 2nd time in this hotel and I think it has improved from a lot from my previous stayed. Overall this hotel is value for money. It has Wi-Fi now. Sweet! My last stay I was struggling for Wi-Fi I have to go the reception. Now I can get it in my room. Also I requested a ground floor the request was granted. What a great place to enjoy my stay here.</t>
   </si>
   <si>
+    <t>RCBBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r160754059-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1240,9 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>brmusicman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r147344922-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1139,6 +1274,9 @@
 Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when...I stayed here one night while visiting Dallas for business.  The hotel's location is fine -- close to where my business was located.  The hotel has easy road access, a large parking lot, and is near several restaurants (mostly chains) and a Whole Foods Market.I had a pretty late arrival.  Kudos to the staff; the woman who checked me in was exceedingly polite and welcoming.  She was also efficient.  I was offered a free snack out of the market due to my Marriott status -- a nice gesture.The hotel is pretty basic in terms of its facilities -- nothing fancy.  But that was fine; I wasn't expecting grandeur from this brand within the Marriott portfolio.  The hallways (while a bit stark) were clean.  My room was very tidy.  I was in a studio suite, and I was pleased with its size -- a small kitchen (although it had a full stove and oven), couch and chair, desk, and bed.  The bed was very comfortable, with a nice mattress and fresh, soft linens.  I was surprised at the quality of the bed; it was much nicer than the beds I typically get at Courtyard and SpringHill Suites properties.Check-out was similarly good; I was thanked for my business and everything was efficient.Overall, a good experience -- a room that was what I expected from the brand and price-point and above-average service.  I'm not dying to go back when I return to Dallas, but I certainly would. More</t>
   </si>
   <si>
+    <t>OakParker98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r139429806-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1290,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exactly what I expected in an extended stay hotel. We picked it solely based on its proximity to Cowboy Stadium.  Reasonably priced. Since the football game was in the evening, we crossed the street and went to Hurricane Harbor during the day. If you are going to a football game or to the water park you really don't need to rent a car. We could have taken a cab from the airport (about 5-10 miles) and walked or taken hotel trolley to the stadium. Small pool and courtyard. Very nice hot breakfast included in the price. Not fancy, very utilitarian. Got what we paid for and expected. </t>
+  </si>
+  <si>
+    <t>xsdv8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r139383607-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1174,6 +1315,9 @@
 If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great...I don't have anything bad to say about this hotel that would not be nit picking.  The staff was friendly, the room and lobby clean and the breakfast buffet each morning was fantastic!  We went for the Alabama/Michigan game and chose the hotel based on its' proximity to the stadium.  If you go for a game at Cowboy's stadium, you just about can't do better than here.  It's within walking distance (unless it's 101 degrees like it was when we were there).  The rooms have a small seating area and a kitchenette with a full sized refrigerator.  Tha bathroom was large and the water pressure was adequate. Nice pool that gets some shade in the afternoon. They also have a large gas grill, a basketball court and some outdoor seating under a gazebo.  But they really shine with breakfast, which is included with your room rate.  Eggs, bacon/sausage, hash browns, biscuits/bagels/muffins, oatmeal, cereal (a huge selection) coffee, juice, milk, yogurt and a make your own waffle station.  If I had anything to say that was lacking, it's that our room was dark and needed a light source at the couch area.  Either an overhead light or a floor lamp would help, since it was too dark to read on the couch no matter what lights were on in the room.  But really...that's all I can say they needed to do.  Other than that one small thing, the experience was great and I'd stay there again.More</t>
   </si>
   <si>
+    <t>J S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r138131549-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1345,9 @@
     <t>Staff was great on arrival.  Needed to upgrade to a larger room and they were very helpful with making the change.  The hotel is at Six Flags and looks like it gets alot of use.  The room was ok but not spectacular.  It was showing signs of over use.  The couch had multiple stains and the carpet was well worn.  The Bathtub didn't drain very well and filled up when you showered.  Only stayed one night and it was comfortable and the morning breakfast was very good.  Don't know if i'd stay there again though.  Might want to consider upgrading there furniture.  Almost forgot we were on the third floor and on checkout the only elevator was out of service so we had to walk down 3 flights of stairs with our bags.  Again another sign of overuse and neglect of maintenance.  On second thought i would not stay there again.More</t>
   </si>
   <si>
+    <t>txlineman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r134645704-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1361,9 @@
   </si>
   <si>
     <t>Excellent staff!Great breakfast!  Love those Texas waffles!Couldn't ask for better location while visiting Hurricane Harbor.They have upgraded the tv in every room.We will continue to make TownePlace our favorite Arlington hotel.Our only complaint... No WiFi in room.</t>
+  </si>
+  <si>
+    <t>ABQRealtor</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r133806139-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1245,6 +1395,9 @@
 Most mornings we were not all up and out of the room...We stayed five nights at the Townplace Suites in Arilington.  The location is ideal for Six Flags Hurricane Harbor, and very convenient to Six Flags Texas, and the Cowboys' and Rangers' stadiums, especially with the free trolley service to these locations.  Restaurants, gas stations, and other shopping are plentiful in the area.Our suite had two separate bedrooms, a living room with a sleeper sofa, a kitchen with microwave, stove/oven, and refrigerator, and one bathroom.  Others have complained about having only one bedroom in a room that can accomodate six, however it was sufficient for our family of five.  The tub/shower/commode was separated from the sink area by a door, and a second door was between the sink area and the living room so several people could occupy the bathroom at the same time.We experienced minor problems with the room--one of the three tv sets had intermittent reception problems, and the commode handle had to be held down for it to flush completely--but these were so small we didn't even mention them to the staff.  The central A/C worked well with one thermostat in the living area and vents in all rooms.The pool was clean and at a comforable temperature.  Breakfast was typical for chain hotels, although they also have evening "receptions" on selected days with assorted food for free...nothing fancy, but a nice added amenity.Most mornings we were not all up and out of the room in time for it to be serviced, but we had no trouble getting fresh towels when we needed them.  The sheets are not changed daily for an extended stay, however I think we could have requested that service if we desired.Parking is free and a larger lot is located at the rear of the buildings.  A single smallish elevator serviced the 3-story building we were in, and it was located at the north end of the building at the opposite end as the lobby--a better design would have been to place it in the middle of the building so all rooms were conveniently close.  One note, the east building is connected to the lobby, while the west building is not.  It is only a couple of feet away, but on a cold winter day you might appreciate staying inside to get to your room.More</t>
   </si>
   <si>
+    <t>bakerchaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r116679784-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1416,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>narrong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r90036870-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1456,9 @@
   </si>
   <si>
     <t>Traveled with family (6 of us) to Sixflags over Texas and Sixflags Hurricane Harbor.  Stayed in 2 bedroom with 1 bathroom and full kitchen.  The breakfast buffet was excellent!  Having the social on Monday through Thursday evenings was a plus.  Saved money taking the trolley to Sixflags.  After being at the park for a while we just took the trolley over to the hotel, had a late lunch (saved our large family lots of money), and took a swim.  After our cool down went back to the park and stayed till close.  This hotel made Hurricane Harbor great.  The hotel is directly across the street from Hurricane Harbor.  If we wanted to go back to our room we did not have to wait on the trolley to take us (just a short walk). Our boys loved seeing the small lizards, swimming in the pool, and playing basketball.Smoke free hotel. Bring your pets for only $100 (non-refundable).  We will bring ours next time.The only complaint I could come up with...  Only 1 bathroom for 2 bedrooms.  We made it work.More shade needed for swimming pool.We will definitely be back next summer!More</t>
+  </si>
+  <si>
+    <t>happybeans76</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r66449776-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1322,6 +1481,9 @@
 The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it...We arrived Saturday May 29, 2010 around 12 pm. We drove from MO down to TX to visit family. It was a long 12 hour drive for us and we were seeking comfort at the time we arrived. It's hot and we wanted to clean up and rest a bit before seeing family. As we arrived the lady at the front desk was nice, but told us no check in was at 3pm. We were stumped as to what to do. Sit in the car until 3? It's hot!! We were so frustrated trying to find out what to do. We didn't want to meet up with anyone needing showers! After about 15 minutes of trying to decide on what to do, my husband decided to ask if they could do an early check in. Yes! They could! Thank you, it would have been nice to offer that when we arrived early!  I was just glad to be able to get into our room. They were all very nice but not really helpful. The Room: It was ok. Not anything to really complain about or rave about. It was clean but not updated. We liked the Residence Inn hotels better. We were not really impressed or comfortable enough to stay here again. The two room suite had one bathroom. The Residence Inn had two. It was a bit difficult to have 6 people use 1 bathroom but we made it work! The room service wasn't through. My daughter found earphones under the sheets. I found other items covered on our bed too. The bathroom had something on the toilet when we arrived. The Pool and Staff: The hotel has a nice pool. It's small but nice. My son, daughter and husband enjoyed the pool until my son swallowed water! Oops I'll save the details of what happens when people do that. The guests were very understanding, saying they had been there no problem. We went and told the front desk. They didn't care to come out and check. We got the mess out of the pool but we did expect someone to come out and look at it. Nope no one cared enough to do that. I can just imagine what else has happened in the pool then! The fact that they showed no interest was a turn off.The day we checked out a lady came to clean the room. We were putting our things in our car so the room was 90% clear of our items. I told her we were checking out and we were going to be out in about 10 minutes. The lady looked at me as though I insulted her. She said, "Check out today?" I said yes and smiled. She looked at me, turned up her face and said ok. I have no idea why she did that but that was my good bye from this hotel.Overall, it wasn't a horrible visit but we've been to better hotels for families. We will try some where else next time.More</t>
   </si>
   <si>
+    <t>BusinessReview_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62961453-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1502,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>Nick811</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62916735-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1520,9 @@
     <t>my wife and i decided to go to a rangers game and wanted to stay close by and this hotel was in a perfect location for us. it was close to the ballpark. As soon as we walked in the door we were greeted by stephanie, she was very nice and helpful. if we had any questions she answered them. thank you</t>
   </si>
   <si>
+    <t>papasito10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r62703593-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1559,9 @@
     <t>I stayed here on business in October, 2009.  This was my first stay with a TownePlace Suites property.  My stay was fine; there were no problems.  At the same time, I don't think I'll stay here again on return trips to Arlington (where there are a ton of hotels with reasonable prices).  I did think the hotel was a bit worn around the edges -- for instance, some of the shutters on the outside of the hotel were either missing or loose.  The bedding was also a bit worn.  Otherwise, the property was fine -- my room was spacious (as you'd expect with an all-suites property), with a nice work desk (sometimes missing in suites places).  The hotel staff was fine -- not exemplary, but not rude.  Overall, I've definitely stayed in nicer all suites places (Residence Inn, Homewood Suites), but this one was adequate and is priced lower than those fancier properties.  The location is good if you have business in Arlington.  There are a couple of grocery stores nearby, which is great for when you have a kitchen.More</t>
   </si>
   <si>
+    <t>Gomez8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r35258258-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1412,6 +1583,9 @@
     <t>I stayed at this hotel this past weekend. I was travelling with my children and we used the Queen sized bed and the children slept on the pull our bed.  The next morning as we were getting up, I found a bug by the bed. On it's own that is concerning however as I was going to call the front desk about it- discovered in between the night stand and the bed a pair of discarded ladies underwear from a previous guest.  I was appalled and disgusted. This clearly shows the room was not thoroughly cleaned prior to my check in. Once notified the onsite mainetnance manager was helpful and steam cleaned my room, I asked for the General manager to call me immediately. I have yet to receive a call from the General Manager to even offer an apology. I have registered a complaint with Marriott Corporate offices but currently do not plan to stay at this hotel again!More</t>
   </si>
   <si>
+    <t>KreitlerKE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r19120752-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +1602,9 @@
   </si>
   <si>
     <t>August 2008</t>
+  </si>
+  <si>
+    <t>KatKnapTrvl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r6642908-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -1465,6 +1642,9 @@
 If you're looking for the "spa experience" of a resort, this is...Stayed at Townsuites for three nights in mid-June 2006.  We are a family of four, so we had a two-bedroom suite.  Each bedroom had a double bed, dresser and television.  The beds were comfortable, with firm mattresses.  The living room sleeper-sofa converted to a double bed, so one of our kids chose the living room as his "bedroom," since it had a TV, VCR/DVD, and he was close to the kitchen.The kitchen is very small--reminiscent of a small apartment kitchen--but it is a full kitchen, equipped with cofee pot, dishes, flatware, glasses, cups, pots, pans, dish towels---anything you need if you want to prepare your own meals.   The bathroom was very small (again, think small apartment,) but with the tub and toilet separated from the vanity with a door, it was workable with four people.  Breakfast is complimentary, and there was a variety of food and plenty of it.  Everything from fruit, cereal (hot and cold,) bagels,.... You could even make your own waffles.  Staff was very friendly and welcoming.  The lady checking us in told us about Happy Hour and what they were serving each day. We didn't swim in the pool, but the area looked clean and well-kept.  The location is perfect if you are planning to go to Six Flaggs or the waterpark, since the waterpark is directly across the street from the hotel.  If you're looking for the "spa experience" of a resort, this is not your place.  It's perfect for families, or for anyone who needs to stay for an extended period of time.  I would definitely stay here again if traveling with my family and needed the room!More</t>
   </si>
   <si>
+    <t>JacksonGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r5407165-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1483,6 +1663,9 @@
     <t>My wife and I, plus our 4 kids stayed here for a week in June 2006. We did the standard Six Flags / Hurricane Harbor.  The hotel is nice, quiet, and has everything you need. We stayed in a 2 bedroom suite, with living room with fold out couch. It was clean, quaint, and very nice. Kitchen was fully stocked. Much more like an apartment than a hotel.I was overall very pleased with the hotel, and recommend it. We will stay here again when we return. Other highlights of our trip, dinner at Pappadeaux (very good) right by 6 Flags, and Texas De Brazil (outstanding!) in downtown Ft Worth. Check both out.More</t>
   </si>
   <si>
+    <t>Tigerlily06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r5406392-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1676,9 @@
   </si>
   <si>
     <t>What a nice place for a family to stay. The rooms were nice and the pool was just outside our door which was a big deal for our 10 year old!. The trolley that runs to the Six Flags park and Hurricane Harbor was wonderful. The rooms were clean and the beds comfortable. After this experience I think a standard hotel room will always come up short. We will definitely stay here again when we return next year.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109517-r3169336-TownePlace_Suites_Dallas_Arlington_North-Arlington_Texas.html</t>
@@ -2015,43 +2201,47 @@
       <c r="A2" t="n">
         <v>37261</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180051</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2067,56 +2257,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37261</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180052</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2134,56 +2328,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37261</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180053</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2199,56 +2397,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37261</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180054</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2268,50 +2470,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37261</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>72231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2325,50 +2531,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37261</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180055</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2382,50 +2592,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37261</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2445,50 +2659,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37261</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9687</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2502,50 +2720,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37261</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180057</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2563,56 +2785,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37261</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2630,50 +2856,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37261</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180058</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2691,56 +2921,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37261</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180059</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2756,56 +2990,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37261</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180060</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2821,56 +3059,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37261</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>68254</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2886,56 +3128,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37261</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>85617</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2951,56 +3197,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37261</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180061</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3016,56 +3266,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37261</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>25375</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3077,56 +3331,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37261</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>4212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3146,50 +3404,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37261</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>180062</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3203,50 +3465,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37261</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180063</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3266,50 +3532,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37261</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>180064</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3323,50 +3593,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37261</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>68445</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3386,50 +3660,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37261</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180065</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3449,50 +3727,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37261</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180066</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3508,56 +3790,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37261</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>42031</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3577,50 +3863,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37261</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>80106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3634,50 +3924,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37261</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>180067</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3691,41 +3985,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37261</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>122147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3742,56 +4040,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37261</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180068</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3803,56 +4105,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37261</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>10359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>292</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3864,56 +4170,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37261</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3927,50 +4237,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37261</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>74246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3988,56 +4302,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37261</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>180069</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4055,50 +4373,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37261</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>180070</v>
+      </c>
+      <c r="C35" t="s">
+        <v>322</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4116,50 +4438,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37261</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>19362</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4177,50 +4503,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37261</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180071</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4242,56 +4572,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37261</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>40361</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4315,50 +4649,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37261</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180072</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4382,50 +4720,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37261</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180073</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4439,50 +4781,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37261</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>11327</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4506,41 +4852,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37261</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
@@ -4569,41 +4919,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37261</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>180074</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -4632,41 +4986,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37261</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180075</v>
+      </c>
+      <c r="C44" t="s">
+        <v>389</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4695,50 +5053,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37261</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>180076</v>
+      </c>
+      <c r="C45" t="s">
+        <v>395</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4762,50 +5124,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37261</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>149416</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4819,41 +5185,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37261</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>180077</v>
+      </c>
+      <c r="C47" t="s">
+        <v>410</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -4882,50 +5252,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37261</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>180078</v>
+      </c>
+      <c r="C48" t="s">
+        <v>416</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4949,50 +5323,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37261</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C49" t="s">
+        <v>423</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5014,47 +5392,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="X49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="Y49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37261</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>180079</v>
+      </c>
+      <c r="C50" t="s">
+        <v>433</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="J50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="K50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="L50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5083,50 +5465,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37261</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>180080</v>
+      </c>
+      <c r="C51" t="s">
+        <v>439</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5150,50 +5536,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37261</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>180081</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="J52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="K52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5213,50 +5603,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37261</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180082</v>
+      </c>
+      <c r="C53" t="s">
+        <v>454</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O53" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5280,50 +5674,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37261</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>180078</v>
+      </c>
+      <c r="C54" t="s">
+        <v>433</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5347,50 +5745,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37261</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>180083</v>
+      </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5414,50 +5816,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37261</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180084</v>
+      </c>
+      <c r="C56" t="s">
+        <v>475</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="J56" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O56" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5481,50 +5887,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37261</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180085</v>
+      </c>
+      <c r="C57" t="s">
+        <v>482</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="K57" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5548,50 +5958,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37261</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>180086</v>
+      </c>
+      <c r="C58" t="s">
+        <v>488</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="J58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="K58" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5605,50 +6019,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37261</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>149416</v>
+      </c>
+      <c r="C59" t="s">
+        <v>402</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5672,50 +6090,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37261</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>180087</v>
+      </c>
+      <c r="C60" t="s">
+        <v>501</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="J60" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="K60" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="L60" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5739,50 +6161,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37261</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>180088</v>
+      </c>
+      <c r="C61" t="s">
+        <v>509</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="J61" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="K61" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="L61" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="O61" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5806,50 +6232,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37261</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180089</v>
+      </c>
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5873,41 +6303,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37261</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>70456</v>
+      </c>
+      <c r="C63" t="s">
+        <v>524</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="J63" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="K63" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="L63" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -5934,41 +6368,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37261</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>180090</v>
+      </c>
+      <c r="C64" t="s">
+        <v>531</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="J64" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="K64" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="L64" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -5995,41 +6433,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37261</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>536</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="J65" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="K65" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="L65" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6048,7 +6490,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
